--- a/rarebooks.xlsx
+++ b/rarebooks.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="178">
   <si>
     <t>Title</t>
   </si>
@@ -638,6 +638,9 @@
   </si>
   <si>
     <t>RT 4 "[Title]"</t>
+  </si>
+  <si>
+    <t>RT 16 "[Title]" + author</t>
   </si>
 </sst>
 </file>
@@ -3072,10 +3075,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3090,9 +3093,10 @@
     <col min="10" max="10" width="11.26953125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.453125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3129,8 +3133,11 @@
       <c r="L1" s="5" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M1" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -3167,8 +3174,11 @@
       <c r="L2" s="5" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M2" s="5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>92</v>
       </c>
@@ -3205,8 +3215,11 @@
       <c r="L3" s="5" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M3" s="5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>72</v>
       </c>
@@ -3243,8 +3256,11 @@
       <c r="L4" s="5" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M4" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>84</v>
       </c>
@@ -3281,8 +3297,11 @@
       <c r="L5" s="5" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M5" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>74</v>
       </c>
@@ -3319,8 +3338,11 @@
       <c r="L6" s="5" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M6" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>86</v>
       </c>
@@ -3357,8 +3379,11 @@
       <c r="L7" s="5" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M7" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>114</v>
       </c>
@@ -3395,8 +3420,11 @@
       <c r="L8" s="5" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M8" s="5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>135</v>
       </c>
@@ -3433,8 +3461,11 @@
       <c r="L9" s="5" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M9" s="5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>59</v>
       </c>
@@ -3471,8 +3502,11 @@
       <c r="L10" s="5" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M10" s="5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -3509,8 +3543,11 @@
       <c r="L11" s="5" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M11" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>69</v>
       </c>
@@ -3547,8 +3584,11 @@
       <c r="L12" s="5" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M12" s="5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>88</v>
       </c>
@@ -3585,8 +3625,11 @@
       <c r="L13" s="5" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M13" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>75</v>
       </c>
@@ -3623,8 +3666,11 @@
       <c r="L14" s="5" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M14" s="5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>98</v>
       </c>
@@ -3661,8 +3707,11 @@
       <c r="L15" s="5" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M15" s="5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>115</v>
       </c>
@@ -3699,8 +3748,11 @@
       <c r="L16" s="5" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M16" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -3737,8 +3789,11 @@
       <c r="L17" s="5" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M17" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>120</v>
       </c>
@@ -3775,8 +3830,11 @@
       <c r="L18" s="5" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M18" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>103</v>
       </c>
@@ -3813,8 +3871,11 @@
       <c r="L19" s="5" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M19" s="5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>90</v>
       </c>
@@ -3851,8 +3912,11 @@
       <c r="L20" s="5" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M20" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>55</v>
       </c>
@@ -3889,8 +3953,11 @@
       <c r="L21" s="5" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M21" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>107</v>
       </c>
@@ -3926,6 +3993,9 @@
       </c>
       <c r="L22" s="5" t="b">
         <v>1</v>
+      </c>
+      <c r="M22" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/rarebooks.xlsx
+++ b/rarebooks.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19410" windowHeight="7350" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19410" windowHeight="7350" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TestSet" sheetId="2" r:id="rId1"/>
     <sheet name="TestSetInfo" sheetId="3" r:id="rId2"/>
     <sheet name="RequestTypeClassifier" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="SnippetClassifier" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="221">
   <si>
     <t>Title</t>
   </si>
@@ -642,6 +643,2129 @@
   <si>
     <t>RT 16 "[Title]" + author</t>
   </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>Ttitle</t>
+  </si>
+  <si>
+    <t>Url</t>
+  </si>
+  <si>
+    <t>Диодор Сицилийский - Историческая библиотека</t>
+  </si>
+  <si>
+    <t>http://profilib.com/kniga/141130/diodor-sitsiliyskiy-istoricheskaya-biblioteka.php</t>
+  </si>
+  <si>
+    <t>IsMoreInfo?</t>
+  </si>
+  <si>
+    <t>Диодор Сицилийский - Историческая библиотека [2012...</t>
+  </si>
+  <si>
+    <r>
+      <t>Историческая</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>библиотека</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Год: 2012 Автор: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Диодор</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Сицилийский Переводчик: В. В. Латышев; М. Е. Сергеенко;В. М. Строгецкий; О. П. Цыбенко; А. Г. Алексанян; О.А. Васильева, Д.В. Мещанский и другие.</t>
+    </r>
+  </si>
+  <si>
+    <t>http://rutracker.org/forum/viewtopic.php?t=3107926</t>
+  </si>
+  <si>
+    <t>Диодор Сицилийский — Википедия</t>
+  </si>
+  <si>
+    <r>
+      <t>«</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Историческая</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>библиотека</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">» </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Диодора</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> состояла из 40 книг, разделенных на 3 части </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>... Диодор</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Сицилийский. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Историческая</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>библиотека</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Ч.1-6. / Перевод И. А. Алексеева. СПб, 1774—1775.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://ru.wikipedia.org/wiki/%D0%94%D0%B8%D0%BE%D0%B4%D0%BE%D1%80_%D0%A1%D0%B8%D1%86%D0%B8%D0%BB%D0%B8%D0%B9%D1%81%D0%BA%D0%B8%D0%B9</t>
+  </si>
+  <si>
+    <t>TurkLib : General History, Historical Records : Диодор...</t>
+  </si>
+  <si>
+    <r>
+      <t>Диодор</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Сицилийский - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Историческая</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>библиотека</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>... Диодор</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> посвятил 30 лет созданию своих исторических сборников (Bibliotheca Historia) и предпринял для этого ряд путешествий.</t>
+    </r>
+  </si>
+  <si>
+    <t>http://turklib.ru/general_history/diodor_siciliiskii_-_istoricheskaya_biblioteka.html</t>
+  </si>
+  <si>
+    <t>Историческая библиотека Диодор Сицилийский читать...</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Предлагаемый Вам труд древнегреческого историка </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Диодора</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Сицилийского — один из основных античных исторических трудов, труд энциклопедический, включивший в себя работы предшествующих авторов.</t>
+    </r>
+  </si>
+  <si>
+    <t>http://ihavebook.org/books/516346/istoricheskaya-biblioteka.html</t>
+  </si>
+  <si>
+    <t>Диодор Сицилийский - Историческая библиотека » Мир...</t>
+  </si>
+  <si>
+    <r>
+      <t>Диодор</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Сицилийский - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Историческая</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>библиотека</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Категория » ГУМАНИТАРНЫЕ НАУКИ, ИСТОРИЯ. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">... </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Автор:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Диодор</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Сицилийский Название: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Историческая</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>библиотека</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Книги VIII—X: Фрагменты.</t>
+    </r>
+  </si>
+  <si>
+    <t>http://mirknig.com/knigi/guman_nauki/1181277453-diodor-sicilijskij-istoricheskaya-biblioteka.html</t>
+  </si>
+  <si>
+    <t>Историческая библиотека Диодора состоит из 40 книг, разделенных на 3 части: 1 ЧАСТЬ Первые 6 книг обзорные, описывают географию, культуру и историю древних государств: Египта (книга I); Месопотамии, Индии, Скифии (книга II); Северной Африки (книга III); Греции и Европы (книга IV-VI). 2 ЧАСТЬ (книги VII-XVII) Диодор излагает историю мира от Троянской войны до смерти Александра Великого.</t>
+  </si>
+  <si>
+    <t>Charles le Beau - Wikipedia, the free encyclopedia</t>
+  </si>
+  <si>
+    <r>
+      <t>Histoire</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>du</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bas</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Empire</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>en</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>commençant</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>à</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Constantin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>le</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Grand</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 27 volumes, 1757-1811 (five volumes being added by Hubert-Pascal Ameilhon). Opera latina : Carmina, Fabulae et narrationes, Orationes et oratiunculae, 3 volumes, 1782-1783.</t>
+    </r>
+  </si>
+  <si>
+    <t>http://en.wikipedia.org/wiki/Charles_le_Beau</t>
+  </si>
+  <si>
+    <t>Histoire du Bas-Empire, commenc?ant...</t>
+  </si>
+  <si>
+    <r>
+      <t>Constantin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>le</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Grand</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Воспроизведено в оригинальной авторской орфографии издания 1819 года (издательство "Paris, Ledoux et Tenre?"). </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">... </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Charles </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Le</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Beau, «</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Histoire</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Du</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bas</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Empire</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>En</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Commencant</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Constantin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Le</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Grand</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Volume 19 (French Edition)».</t>
+    </r>
+  </si>
+  <si>
+    <t>http://spisok-literaturi.ru/books/histoire-du-bas-empire-commenc-ant-a-constantin-le-grand_24600710.html</t>
+  </si>
+  <si>
+    <t>http://www.isbns.net/isbn/9781271204199</t>
+  </si>
+  <si>
+    <r>
+      <t>Histoire</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Du</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bas</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>empire</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>En</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Commençant</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Constantin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Le</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Grand</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>... (French Edition) by Charles Lebeau Paperback, 470 Pages, Published 2011.</t>
+    </r>
+  </si>
+  <si>
+    <t>Histoire Du Bas-empire: En Commençant A Constantin...</t>
+  </si>
+  <si>
+    <t>Histoire Du Bas-Empire V21: En Commencant a Constantin...</t>
+  </si>
+  <si>
+    <r>
+      <t>Histoire</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Du</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bas</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Empire</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> V21: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>En</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Commencant</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Constantin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Le</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Grand</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (1781). Hardback Language: English / French.</t>
+    </r>
+  </si>
+  <si>
+    <t>http://www.bookdepository.com/Histoire-Du-Bas-Empire-V21-Charles-LeBeau/9781104709723</t>
+  </si>
+  <si>
+    <t>Catalog Record: Sermons du pere Bourdaloue...</t>
+  </si>
+  <si>
+    <r>
+      <t>Sermons</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>du</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pere</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bourdaloue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>de</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>la</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Compagnie</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>de</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Jesus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sur les Mysteres : tome second By: Bourdaloue, Louis (S.I.) Published: (1756). </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>... Sermons</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>du</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pere</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bourdaloue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>de</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>la</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Compagnie</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>de</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Jesus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> pour les festes des saints ... : tome premier. Main Author</t>
+    </r>
+  </si>
+  <si>
+    <t>http://catalog.hathitrust.org/Record/009341124</t>
+  </si>
+  <si>
+    <t>Sermons du Père Bourdaloue, de la Compagnie de Jésus...</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Are you sure you want to remove </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sermons</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>du</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Père</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bourdaloue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>de</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>la</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Compagnie</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>de</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Jésus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> from your list?</t>
+    </r>
+  </si>
+  <si>
+    <t>https://openlibrary.org/books/OL24364458M/Sermons_du_P%C3%A8re_Bourdaloue_de_la_Compagnie_de_J%C3%A9sus</t>
+  </si>
+  <si>
+    <t>Pensées du Pere BOURDALOUE de la compagnie de Jesus...</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Добавить в корзину Заказать. Номер : 201322039. ‎[RELIGIONS] - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BOURDALOUE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pere</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">... </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">‎A Bruxelles, Chez François Fopens, imprimeur libraire, 1752; in-12, 450-471 pp., cartonnage </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>de</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'éditeur. Les 2 volumes.</t>
+    </r>
+  </si>
+  <si>
+    <t>http://www.livre-rare-book.com/book/5472679/201322039/ru</t>
+  </si>
 </sst>
 </file>
 
@@ -650,7 +2774,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -668,6 +2792,22 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -705,20 +2845,43 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3077,8 +5240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4004,6 +6167,280 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="77.54296875" customWidth="1"/>
+    <col min="2" max="2" width="50.36328125" customWidth="1"/>
+    <col min="3" max="3" width="70.08984375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="6" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="D2" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="9">
+        <v>1380724</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="D3" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" s="9">
+        <v>1380724</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="D4" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="9">
+        <v>1380724</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="D5" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="9">
+        <v>1380724</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="D6" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" s="9">
+        <v>1380724</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="D7" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" s="9">
+        <v>1380724</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D8" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" s="9">
+        <v>1320138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="D9" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" s="9">
+        <v>1320138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="D10" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" s="9">
+        <v>1320138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="D11" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" s="9">
+        <v>1320138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="D12" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" s="9">
+        <v>1229432</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="D13" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" s="9">
+        <v>1229432</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="D14" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" s="9">
+        <v>1229432</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" display="http://rutracker.org/forum/viewtopic.php?t=3107926"/>
+    <hyperlink ref="B4" r:id="rId2" display="http://ru.wikipedia.org/wiki/%D0%94%D0%B8%D0%BE%D0%B4%D0%BE%D1%80_%D0%A1%D0%B8%D1%86%D0%B8%D0%BB%D0%B8%D0%B9%D1%81%D0%BA%D0%B8%D0%B9"/>
+    <hyperlink ref="B5" r:id="rId3" display="http://turklib.ru/general_history/diodor_siciliiskii_-_istoricheskaya_biblioteka.html"/>
+    <hyperlink ref="B6" r:id="rId4" display="http://ihavebook.org/books/516346/istoricheskaya-biblioteka.html"/>
+    <hyperlink ref="B7" r:id="rId5" display="http://mirknig.com/knigi/guman_nauki/1181277453-diodor-sicilijskij-istoricheskaya-biblioteka.html"/>
+    <hyperlink ref="B8" r:id="rId6" display="http://en.wikipedia.org/wiki/Charles_le_Beau"/>
+    <hyperlink ref="B9" r:id="rId7" display="http://spisok-literaturi.ru/books/histoire-du-bas-empire-commenc-ant-a-constantin-le-grand_24600710.html"/>
+    <hyperlink ref="B10" r:id="rId8" display="http://www.isbns.net/isbn/9781271204199"/>
+    <hyperlink ref="B11" r:id="rId9" display="http://www.bookdepository.com/Histoire-Du-Bas-Empire-V21-Charles-LeBeau/9781104709723"/>
+    <hyperlink ref="B12" r:id="rId10" display="http://catalog.hathitrust.org/Record/009341124"/>
+    <hyperlink ref="B13" r:id="rId11" display="https://openlibrary.org/books/OL24364458M/Sermons_du_P%C3%A8re_Bourdaloue_de_la_Compagnie_de_J%C3%A9sus"/>
+    <hyperlink ref="B14" r:id="rId12" display="http://www.livre-rare-book.com/book/5472679/201322039/ru"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N55"/>
   <sheetViews>

--- a/rarebooks.xlsx
+++ b/rarebooks.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="224">
   <si>
     <t>Title</t>
   </si>
@@ -2765,6 +2765,15 @@
   </si>
   <si>
     <t>http://www.livre-rare-book.com/book/5472679/201322039/ru</t>
+  </si>
+  <si>
+    <t>Book title</t>
+  </si>
+  <si>
+    <t>Book author</t>
+  </si>
+  <si>
+    <t>Book year</t>
   </si>
 </sst>
 </file>
@@ -3617,7 +3626,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
@@ -5241,7 +5250,7 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6168,10 +6177,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6181,9 +6190,11 @@
     <col min="3" max="3" width="70.08984375" style="6" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>178</v>
       </c>
@@ -6199,8 +6210,17 @@
       <c r="E1" s="9" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" s="6" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="F1" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="6" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>199</v>
       </c>
@@ -6216,8 +6236,17 @@
       <c r="E2" s="9">
         <v>1380724</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="F2" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="H2" s="9">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>185</v>
       </c>
@@ -6233,8 +6262,17 @@
       <c r="E3" s="9">
         <v>1380724</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="F3" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="H3" s="9">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>188</v>
       </c>
@@ -6250,8 +6288,17 @@
       <c r="E4" s="9">
         <v>1380724</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="F4" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="H4" s="9">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>191</v>
       </c>
@@ -6267,8 +6314,17 @@
       <c r="E5" s="9">
         <v>1380724</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="F5" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="H5" s="9">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>194</v>
       </c>
@@ -6284,8 +6340,17 @@
       <c r="E6" s="9">
         <v>1380724</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="F6" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="H6" s="9">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
         <v>197</v>
       </c>
@@ -6301,8 +6366,17 @@
       <c r="E7" s="9">
         <v>1380724</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="F7" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="H7" s="9">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
         <v>201</v>
       </c>
@@ -6318,8 +6392,17 @@
       <c r="E8" s="9">
         <v>1320138</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="F8" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8" s="9">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
         <v>204</v>
       </c>
@@ -6335,8 +6418,17 @@
       <c r="E9" s="9">
         <v>1320138</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="F9" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" s="9">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
         <v>207</v>
       </c>
@@ -6352,8 +6444,17 @@
       <c r="E10" s="9">
         <v>1320138</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="F10" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" s="9">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
         <v>210</v>
       </c>
@@ -6369,8 +6470,17 @@
       <c r="E11" s="9">
         <v>1320138</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="F11" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11" s="9">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
         <v>213</v>
       </c>
@@ -6386,8 +6496,17 @@
       <c r="E12" s="9">
         <v>1229432</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="F12" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H12" s="9">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="12" t="s">
         <v>216</v>
       </c>
@@ -6403,8 +6522,17 @@
       <c r="E13" s="9">
         <v>1229432</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="F13" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H13" s="9">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A14" s="12" t="s">
         <v>219</v>
       </c>
@@ -6419,6 +6547,15 @@
       </c>
       <c r="E14" s="9">
         <v>1229432</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H14" s="9">
+        <v>1770</v>
       </c>
     </row>
   </sheetData>

--- a/rarebooks.xlsx
+++ b/rarebooks.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19410" windowHeight="7350" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19410" windowHeight="7350" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="TestSetInfo" sheetId="3" r:id="rId1"/>
-    <sheet name="RequestTypeClassifier" sheetId="4" r:id="rId2"/>
-    <sheet name="SnippetClassifier" sheetId="5" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="TestSet" sheetId="3" r:id="rId1"/>
+    <sheet name="BinaryClassifier" sheetId="6" r:id="rId2"/>
+    <sheet name="RequestTypeClassifier" sheetId="4" r:id="rId3"/>
+    <sheet name="SnippetClassifier" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,432 +28,63 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="177">
+  <si>
+    <t>Internal</t>
+  </si>
+  <si>
+    <t>RT 4 "[Title]"</t>
+  </si>
+  <si>
+    <t>RT 2 title:[Title]</t>
+  </si>
+  <si>
+    <t>RT 7 [Title] + [Year]</t>
+  </si>
+  <si>
+    <t>RT 16 "[Title]" + author</t>
+  </si>
+  <si>
+    <t>More info?</t>
+  </si>
   <si>
     <t>Title</t>
   </si>
   <si>
-    <t>Titlte len</t>
-  </si>
-  <si>
     <t>Year</t>
   </si>
   <si>
     <t>Author</t>
   </si>
   <si>
-    <t>Author len</t>
-  </si>
-  <si>
     <t>Annotation</t>
   </si>
   <si>
-    <t>Annotation len</t>
-  </si>
-  <si>
-    <t>Language code</t>
-  </si>
-  <si>
-    <t>Bbk</t>
-  </si>
-  <si>
-    <t>Bbk ?</t>
-  </si>
-  <si>
-    <t>More info ?</t>
-  </si>
-  <si>
-    <t>Internal id</t>
-  </si>
-  <si>
-    <t>Yandex Documents Count</t>
-  </si>
-  <si>
-    <t>Yandex Documents Count (Normalized)</t>
-  </si>
-  <si>
-    <t>Privilegia fratrum eremitarum Sancti Augustini</t>
-  </si>
-  <si>
-    <t>Historia Hugonis Falcandi Siculi De rebus gestis in Siciliae regno, iam primum typis excusa, studio et beneficio reuerendi D. Domini Matthaei Longogaei</t>
-  </si>
-  <si>
-    <t>Hugo Falcandus</t>
-  </si>
-  <si>
-    <t>Т3(4Іта)</t>
-  </si>
-  <si>
-    <t>Michaelis [ab Isselt] de Bello Coloniensi libri quatuor, hoc est rerum ab electione Gebhardi Truchsesii in archiepiscopum Coloniensem usque ad recuperatam ab Ernesto duce Bavariae, ejus successore, Westphaliam tota dioecesi gestarum ... narratio</t>
-  </si>
-  <si>
-    <t>Isselt M. van</t>
-  </si>
-  <si>
-    <t>Т3(4Нім)43-6</t>
-  </si>
-  <si>
-    <t>Practica criminalis canonica, seu litium controversiarumo in foro passim Ecclesiastico verti solitarum, copiosae &amp; iuridicae decisiones</t>
-  </si>
-  <si>
-    <t>Diaz, Jo. Bernardo</t>
-  </si>
-  <si>
-    <t>Х</t>
-  </si>
-  <si>
-    <t>Michaelis ab Isselt amorfortii sui temporis Historia: in qua res in toto orbe terrarum gestae, tum praecipue motuum Belgicorum sub Philippo II Hispaniarum Rege, &amp;c. concitatorum origo &amp; successus usque ad annum M.D.LXXXVI</t>
-  </si>
-  <si>
-    <t>Т3(4Нід)4</t>
-  </si>
-  <si>
-    <t>La Royne Marguerite, ou sont descrites la noblesse, la grandeur de ceste grande princesse sa beaute ses vertus</t>
-  </si>
-  <si>
-    <t>Corbin Iaques</t>
-  </si>
-  <si>
-    <t>Т3(4Фра)4+Ш6(4Фра)</t>
-  </si>
-  <si>
-    <t>De la Sagesse trois livres par Pierre Charron parisien docteur es droicts</t>
-  </si>
-  <si>
-    <t>Charron Pierre</t>
-  </si>
-  <si>
-    <t>Manuale execcitiorum spiritualium</t>
-  </si>
-  <si>
-    <t>Capella</t>
-  </si>
-  <si>
-    <t>Э375</t>
-  </si>
-  <si>
-    <t>Casparis Facii Axiomata bellica, ex ipsis rebus gestis per exempla veterum ac recentium Historiarum parce ac quasi gustu praebita</t>
-  </si>
-  <si>
-    <t>Facius Caspar</t>
-  </si>
-  <si>
-    <t>Ц35(0)32</t>
-  </si>
-  <si>
-    <t>Compendium examinis theologici</t>
-  </si>
-  <si>
-    <t>Pontanus</t>
-  </si>
-  <si>
-    <t>Le Galatee</t>
-  </si>
-  <si>
-    <t>Ключ разумения с[вя]щенником законным и свецким належачый</t>
-  </si>
-  <si>
-    <t>Галятовский Иоанникий</t>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>Bbk?</t>
+  </si>
+  <si>
+    <t>Галицько-руське письменство Михайла Дpагоманова</t>
+  </si>
+  <si>
+    <t>Драгоманов М.П</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Историко-статистические сведения о населенных местностях Конотопского уезда</t>
+  </si>
+  <si>
+    <t>Лазаревский А.М</t>
   </si>
   <si>
     <t>De la vie et des actions d'Alexandre le Grand, de la traduction de mr. De Vaugelas, avec les supplemens de Jean Freinshemius, traduits par feu m. Du Ryer</t>
   </si>
   <si>
     <t>Quinte Curce</t>
-  </si>
-  <si>
-    <t>Les oeuvres de Mr. Pradon</t>
-  </si>
-  <si>
-    <t>Pradon</t>
-  </si>
-  <si>
-    <t>Ш6(4Фра)</t>
-  </si>
-  <si>
-    <t>Histoire des juifs, ecrite par Flavius Joseph, sous le titre de Antiquitez Judaiques</t>
-  </si>
-  <si>
-    <t>Flavius Josephus</t>
-  </si>
-  <si>
-    <t>Разговоры о множестве миров господина Фонтенелла Парижской Академии наук секретаря</t>
-  </si>
-  <si>
-    <t>Фонтенель Б</t>
-  </si>
-  <si>
-    <t>Ю3(4Фра)5-535.12</t>
-  </si>
-  <si>
-    <t>Fables et contes</t>
-  </si>
-  <si>
-    <t>Gellert C.F.</t>
-  </si>
-  <si>
-    <t>Ш6(4Нім)4-5</t>
-  </si>
-  <si>
-    <t>Architecture hydraulique</t>
-  </si>
-  <si>
-    <t>Belidor B.F</t>
-  </si>
-  <si>
-    <t>Biblia Sacra ex Sebastiani Castellionis interpretatione eiusque postrema rcognitione praecipue in usum studiosae iuventutis denuo evulgata</t>
-  </si>
-  <si>
-    <t>Э37-200.22+Э37-2</t>
-  </si>
-  <si>
-    <t>Oeuvres de monsieur de Campistron</t>
-  </si>
-  <si>
-    <t>Campistron J.G. de</t>
-  </si>
-  <si>
-    <t>Ш6(4Фра)51</t>
-  </si>
-  <si>
-    <t>Histoire de la republique de Venise</t>
-  </si>
-  <si>
-    <t>Laugier Marc Antoine</t>
-  </si>
-  <si>
-    <t>Т3(4Іта-2Вен)</t>
-  </si>
-  <si>
-    <t>Практическая геометрия, сочиненная при Сухопутном шляхетном кадетском корпусе, для употребления обучающегося благородного юношества, находящимся при оном корпусе инженер прапорщиком Степаном Назаровым</t>
-  </si>
-  <si>
-    <t>Назаров С</t>
-  </si>
-  <si>
-    <t>В151</t>
-  </si>
-  <si>
-    <t>Флоринова Экономия, в девяти книгах состоящая</t>
-  </si>
-  <si>
-    <t>Annus IV. Historiko-naturalis</t>
-  </si>
-  <si>
-    <t>Scopoli, Ioann. Ant</t>
-  </si>
-  <si>
-    <t>Annus V : Historico-naturalis : 1. Emendationes et Additamenta ad I, II, III, IV; 2. Tentamen Mineralogicum 1. De Minera Argenti alba; 3. Tentamen Mineralogicum 2. De Sulhpure; 4. Tentamen Mineralogicum 3. De Pseudogalena, Auripigmento, aliisque; 5. Observationes Zoologicae. - 128 p.</t>
-  </si>
-  <si>
-    <t>Histoire du Bas-Empire, en commencant a Constantin le Grand</t>
-  </si>
-  <si>
-    <t>Le Beau Charles</t>
-  </si>
-  <si>
-    <t>Журнал или поденная записка, блаженныя и вечнодостойныя памяти государя императора Петра Великаго с 1698 года</t>
-  </si>
-  <si>
-    <t>Sermons du pere Bourdaloue, de la Compagnie de Jesus</t>
-  </si>
-  <si>
-    <t>Bourdaloue L</t>
-  </si>
-  <si>
-    <t>Э375-5+Э375-647.315</t>
-  </si>
-  <si>
-    <t>Lettres de Ciceron a Atticus, avec des remarques et le texte latin de l'edition de Graevius</t>
-  </si>
-  <si>
-    <t>Cicero</t>
-  </si>
-  <si>
-    <t>Т3(0)35</t>
-  </si>
-  <si>
-    <t>Sateres et oeuvres diverses de M. Boileau Despreaux</t>
-  </si>
-  <si>
-    <t>Boileau Nicolas</t>
-  </si>
-  <si>
-    <t>Ш6(4Фра)4я44</t>
-  </si>
-  <si>
-    <t>Основание силы и благосостояния царств</t>
-  </si>
-  <si>
-    <t>Юстий И-.Г-.Г</t>
-  </si>
-  <si>
-    <t>Наставления политическия барона Билфелда</t>
-  </si>
-  <si>
-    <t>Билфелд И.Ф</t>
-  </si>
-  <si>
-    <t>Oeuvres de M. de Voltaire</t>
-  </si>
-  <si>
-    <t>Voltaire</t>
-  </si>
-  <si>
-    <t>Историческая библиотека</t>
-  </si>
-  <si>
-    <t>Диодор Силикийский</t>
-  </si>
-  <si>
-    <t>Sermons de M. Massillon, eveque de Clermont</t>
-  </si>
-  <si>
-    <t>Massillon J.-P</t>
-  </si>
-  <si>
-    <t>Memoires pour servir a l'histoire des egaremens de l'esprit humain par rapport a la religion chretienne, ou Dictionnaire des heresies, des erreurs et des schismes</t>
-  </si>
-  <si>
-    <t>Pluquet</t>
-  </si>
-  <si>
-    <t>Э37</t>
-  </si>
-  <si>
-    <t>Kazania na wszystkie uroczyste w roku swieta po wiekszey czesci przeciw gorszacym teraznieyszego wieku zdaniom przystosowane</t>
-  </si>
-  <si>
-    <t>Saint Bible, contenant l'Ancien et le Nouveau Testament</t>
-  </si>
-  <si>
-    <t>Э37-2</t>
-  </si>
-  <si>
-    <t>Conferences et discours synodaux sur les principaux devoirs des ecclesiastiques, avec un recueil de mandemens sur differens sujets</t>
-  </si>
-  <si>
-    <t>Massillon</t>
-  </si>
-  <si>
-    <t>Ю7+Э375-43</t>
-  </si>
-  <si>
-    <t>Sermons de m. Massillon, eveque de Clermont, ci-devant pretre de l'Oratoire, l'un des quarante de l'Academie Francoise</t>
-  </si>
-  <si>
-    <t>Loix du magnetisme</t>
-  </si>
-  <si>
-    <t>Le Monnier, Pierre Charles</t>
-  </si>
-  <si>
-    <t>В3</t>
-  </si>
-  <si>
-    <t>Регламент, или Устав духовной коллегии [Духовный регламент]</t>
-  </si>
-  <si>
-    <t>закон, изданный в форме манифеста Петром I, определявший правовое положение Православной Церкви в России (Православной Российской Церкви). Код - Кир, фсд - задовільний КНУ ім. Тараса Шевченка, Наукова б-ка ім. М. Максимовича Пал.XVIII ст.- картон, шкіра</t>
-  </si>
-  <si>
-    <t>Э372.24-346</t>
-  </si>
-  <si>
-    <t>Le cultivateur anlois, ou Oeuvres choisies d'agriculture et d'economie rurale et politique</t>
-  </si>
-  <si>
-    <t>Young A</t>
-  </si>
-  <si>
-    <t>O litewskich i polskich prawach, o ich duchu, zrodlach, zwiazku i o rzeczach zawartych w pierwszem Statucie dla Litwy 1529 roku wydanem</t>
-  </si>
-  <si>
-    <t>Czacki Tadeusz</t>
-  </si>
-  <si>
-    <t>Жизнь Екатерины Великой, императрицы и самодержавицы всероссийской</t>
-  </si>
-  <si>
-    <t>Записки касательно Российской истории</t>
-  </si>
-  <si>
-    <t>Екатерина II</t>
-  </si>
-  <si>
-    <t>Т3(4Рос)0,01</t>
-  </si>
-  <si>
-    <t>Для добрых</t>
-  </si>
-  <si>
-    <t>Гераков Г. В</t>
-  </si>
-  <si>
-    <t>История Российского государства</t>
-  </si>
-  <si>
-    <t>Стриттер И</t>
-  </si>
-  <si>
-    <t>Література российска, великоруска, украінска и галицька</t>
-  </si>
-  <si>
-    <t>Драгоманов М.П</t>
-  </si>
-  <si>
-    <t>Ш5(4Укр)+Ш5(4Рос)</t>
-  </si>
-  <si>
-    <t>Галицько-руське письменство Михайла Дpагоманова</t>
-  </si>
-  <si>
-    <t>Ш5(4Укр)5-31</t>
-  </si>
-  <si>
-    <t>Собрание сочинений</t>
-  </si>
-  <si>
-    <t>Максимович М.А</t>
-  </si>
-  <si>
-    <t>Т3</t>
-  </si>
-  <si>
-    <t>Историко-статистические сведения о населенных местностях Конотопского уезда</t>
-  </si>
-  <si>
-    <t>Лазаревский А.М</t>
-  </si>
-  <si>
-    <t>Переписка М. Драгоманова з Наталією Кобринською (1893-1895)</t>
-  </si>
-  <si>
-    <t>Рай і поступ</t>
-  </si>
-  <si>
-    <t>Ю2+Э37</t>
-  </si>
-  <si>
-    <t>Швейцарська спілка</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>Bbk?</t>
-  </si>
-  <si>
-    <t>Yandex</t>
-  </si>
-  <si>
-    <t>More info?</t>
-  </si>
-  <si>
-    <t>Internal</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>У виданні додатковий (попередній)  титульний аркуш:
@@ -460,9 +92,42 @@
 De la vie et des actions d'Alexandre le Grand, de la traduction de mr. De Vaugelas, avec les supplemens de Jean Freinshemius, traduits par feu m. Du Ryer. - Ed. nouvelle enrichie de figures. - A Amsterdam : Chez Henry Wetstein, 1696</t>
   </si>
   <si>
+    <t>Lettres de Ciceron a Atticus, avec des remarques et le texte latin de l'edition de Graevius</t>
+  </si>
+  <si>
+    <t>Cicero</t>
+  </si>
+  <si>
+    <t>Histoire de la republique de Venise</t>
+  </si>
+  <si>
+    <t>Laugier Marc Antoine</t>
+  </si>
+  <si>
+    <t>Le cultivateur anlois, ou Oeuvres choisies d'agriculture et d'economie rurale et politique</t>
+  </si>
+  <si>
+    <t>Young A</t>
+  </si>
+  <si>
+    <t>Le Galatee</t>
+  </si>
+  <si>
     <t>Повна назва видання:
 Le Galatee / premierement compose en italien par I. de la Case, &amp; depuis mis en francois, latin, allemand, &amp; espagnol ; traicte tres utile et tres necessaire pour bien dresser une ieunesse en toutes manieres et facons de faire louables, bien recues et approueees par toutes gents d'honneur et de vertu, et propre pour ceux, qui non seulement prennent plaisir en la langue latine, mais aussi aux vulgaires, qui pour le iourd'huy sont les plus prises.
 На тит. арк. овальна синя печатка з нерозбірдивим текстом, а також надпис чорним чорнилом: Collegy Dabrouicensis Scholam Piarum Ano Dei 1802</t>
+  </si>
+  <si>
+    <t>Ключ разумения с[вя]щенником законным и свецким належачый</t>
+  </si>
+  <si>
+    <t>Галятовский Иоанникий</t>
+  </si>
+  <si>
+    <t>Sermons de M. Massillon, eveque de Clermont</t>
+  </si>
+  <si>
+    <t>Massillon J.-P</t>
   </si>
   <si>
     <t>На зворотньому боці палітурки 2 екслібріси:
@@ -473,7 +138,37 @@
 графинею Кассини в 1898 г</t>
   </si>
   <si>
+    <t>Les oeuvres de Mr. Pradon</t>
+  </si>
+  <si>
+    <t>Pradon</t>
+  </si>
+  <si>
+    <t>Sateres et oeuvres diverses de M. Boileau Despreaux</t>
+  </si>
+  <si>
+    <t>Boileau Nicolas</t>
+  </si>
+  <si>
     <t>На контртитулі дереворіт із надписом: Boileau sut remplacer Horace``</t>
+  </si>
+  <si>
+    <t>O litewskich i polskich prawach, o ich duchu, zrodlach, zwiazku i o rzeczach zawartych w pierwszem Statucie dla Litwy 1529 roku wydanem</t>
+  </si>
+  <si>
+    <t>Czacki Tadeusz</t>
+  </si>
+  <si>
+    <t>Histoire du Bas-Empire, en commencant a Constantin le Grand</t>
+  </si>
+  <si>
+    <t>Le Beau Charles</t>
+  </si>
+  <si>
+    <t>Основание силы и благосостояния царств</t>
+  </si>
+  <si>
+    <t>Юстий И-.Г-.Г</t>
   </si>
   <si>
     <t>Код- Гр, фсд- задовіл.
@@ -482,10 +177,19 @@
 Пал. ХVIII ст. -картон, шкіра, корінець з тисненням</t>
   </si>
   <si>
+    <t>Журнал или поденная записка, блаженныя и вечнодостойныя памяти государя императора Петра Великаго с 1698 года</t>
+  </si>
+  <si>
     <t>Код- Гр, фсд- задовіл.
 КНУ ім. Тараса Шевченка, Наукова б-ка 
 ім. М. Максимовича.
 Пал. ХVIII ст.- картон, папір, корінець та куточки зі шкіри</t>
+  </si>
+  <si>
+    <t>Наставления политическия барона Билфелда</t>
+  </si>
+  <si>
+    <t>Билфелд И.Ф</t>
   </si>
   <si>
     <t>Титульний аркуш пошкоджено, місце та рік видання встановлено за інтернет-пошуком.
@@ -495,6 +199,9 @@
 Пал. ХVIII ст.- без обкладинки, видавн. марка</t>
   </si>
   <si>
+    <t>Жизнь Екатерины Великой, императрицы и самодержавицы всероссийской</t>
+  </si>
+  <si>
     <t>Код - Гр, фсд - задовільний
 КНУ ім. Тараса Шевченка, Наукова б-ка
 ім. М. Максимовича
@@ -502,8 +209,29 @@
 На титул. арк.- видавн. марка</t>
   </si>
   <si>
+    <t>Швейцарська спілка</t>
+  </si>
+  <si>
+    <t>Memoires pour servir a l'histoire des egaremens de l'esprit humain par rapport a la religion chretienne, ou Dictionnaire des heresies, des erreurs et des schismes</t>
+  </si>
+  <si>
+    <t>Pluquet</t>
+  </si>
+  <si>
     <t>На стор. XVI кругла печатка з надписом: Lyon 1777
 На звороті тит.арк. надпис чорнилом: 1783 года марта 28 дано на авкционе за оба томы</t>
+  </si>
+  <si>
+    <t>Oeuvres de monsieur de Campistron</t>
+  </si>
+  <si>
+    <t>Campistron J.G. de</t>
+  </si>
+  <si>
+    <t>Разговоры о множестве миров господина Фонтенелла Парижской Академии наук секретаря</t>
+  </si>
+  <si>
+    <t>Фонтенель Б</t>
   </si>
   <si>
     <t>Код- Гр, фсд- задовіл.
@@ -512,12 +240,30 @@
 Пал. ХVIII cт.- картон, шкіра, кінцівка, заставка</t>
   </si>
   <si>
+    <t>Рай і поступ</t>
+  </si>
+  <si>
+    <t>Kazania na wszystkie uroczyste w roku swieta po wiekszey czesci przeciw gorszacym teraznieyszego wieku zdaniom przystosowane</t>
+  </si>
+  <si>
     <t>На внутренней стороне переплета экслибрис:
 Фундаментальная библиотека Подольской духовной семинарии
 На форзаці маргіналії</t>
   </si>
   <si>
+    <t>Casparis Facii Axiomata bellica, ex ipsis rebus gestis per exempla veterum ac recentium Historiarum parce ac quasi gustu praebita</t>
+  </si>
+  <si>
+    <t>Facius Caspar</t>
+  </si>
+  <si>
     <t>Конволют об'єднує 3 видання</t>
+  </si>
+  <si>
+    <t>Annus IV. Historiko-naturalis</t>
+  </si>
+  <si>
+    <t>Scopoli, Ioann. Ant</t>
   </si>
   <si>
     <t>Видавницький конволют
@@ -531,14 +277,32 @@
 КНУім. Тараса Шевченка, Наукова біб - ка ім. М. Максимовича</t>
   </si>
   <si>
+    <t>Oeuvres de M. de Voltaire</t>
+  </si>
+  <si>
+    <t>Voltaire</t>
+  </si>
+  <si>
     <t>Bibliographic Information about this bookTitle more »[Oeuvres de M. de Voltaire]. vol. 10
 http://babel.hathitrust.org/cgi/pt?id=njp.32101075727006;page=root;view=image;size=100;seq=1</t>
+  </si>
+  <si>
+    <t>La Royne Marguerite, ou sont descrites la noblesse, la grandeur de ceste grande princesse sa beaute ses vertus</t>
+  </si>
+  <si>
+    <t>Corbin Iaques</t>
   </si>
   <si>
     <t>На зворотньому боці палітурки прямокутна печатка з текстом:
 Вол. Губ. Комит. по охр. памятн. иск. и старины 877/265
 На тит. арк. надпис чорним чорнилом:
 Exe bibliotheca aries? Brzeznicensis</t>
+  </si>
+  <si>
+    <t>Sermons du pere Bourdaloue, de la Compagnie de Jesus</t>
+  </si>
+  <si>
+    <t>Bourdaloue L</t>
   </si>
   <si>
     <t>На зворотньому боці палітурки 2 екслібріси:
@@ -550,7 +314,28 @@
 На тит. арк. печатка: Библиотека Императорского университета Св. Владимира</t>
   </si>
   <si>
+    <t>De la Sagesse trois livres par Pierre Charron parisien docteur es droicts</t>
+  </si>
+  <si>
+    <t>Charron Pierre</t>
+  </si>
+  <si>
+    <t>Собрание сочинений</t>
+  </si>
+  <si>
+    <t>Максимович М.А</t>
+  </si>
+  <si>
+    <t>Manuale execcitiorum spiritualium</t>
+  </si>
+  <si>
+    <t>Capella</t>
+  </si>
+  <si>
     <t>На тит. арк. надпис чорним чорнилом: Conventus Carmelitt Berdic[zoy?] Dis[caltt?]</t>
+  </si>
+  <si>
+    <t>Saint Bible, contenant l'Ancien et le Nouveau Testament</t>
   </si>
   <si>
     <t>На палітурці 2 екслібриси:
@@ -559,8 +344,26 @@
 Библиотека Ген.-Адъютанта Дмитрия Гавриловича Бибикова, пожертвованная Университету его дочерью, графинею Кассини в 1898 г</t>
   </si>
   <si>
+    <t>Historia Hugonis Falcandi Siculi De rebus gestis in Siciliae regno, iam primum typis excusa, studio et beneficio reuerendi D. Domini Matthaei Longogaei</t>
+  </si>
+  <si>
+    <t>Hugo Falcandus</t>
+  </si>
+  <si>
     <t>Hugo Falcandus  - хронист царствования короля Сицилии Вильгельма I и его сына Вильгельма II ("История тиранов Сицилии"). Точно неизвестно - "Hugo Falcandus" -  подлинное имя или псевдоним.
 Hugo Falcandus was an Italian historian who chronicled the reign of William I of Sicily and the minority of his son William II in a highly critical work entitled The History of the Tyrants of Sicily (or Liber de Regno Sicilie). There is some doubt as to whether "Hugo Falcandus" is a real name or a pseudonym. Evelyn Jamison argued that he was Eugenius, amiratus from 1190. The Frenchman Hugues Foucaud (Hugo Fulcaudus), abbot of Saint-Denis, has been proposed as an author</t>
+  </si>
+  <si>
+    <t>Записки касательно Российской истории</t>
+  </si>
+  <si>
+    <t>Екатерина II</t>
+  </si>
+  <si>
+    <t>Флоринова Экономия, в девяти книгах состоящая</t>
+  </si>
+  <si>
+    <t>Biblia Sacra ex Sebastiani Castellionis interpretatione eiusque postrema rcognitione praecipue in usum studiosae iuventutis denuo evulgata</t>
   </si>
   <si>
     <t>На тит. арк. гравірований портрет роботи Johann Christoph Sysang (1703–1757) з написом:
@@ -569,18 +372,42 @@
 На задньому форзаці рукописний текст латиною</t>
   </si>
   <si>
+    <t>Compendium examinis theologici</t>
+  </si>
+  <si>
+    <t>Pontanus</t>
+  </si>
+  <si>
     <t>Примірник містить багаточисленні нерозбірливі маргіналії, які записані між рядків чорним чорнилом</t>
+  </si>
+  <si>
+    <t>Conferences et discours synodaux sur les principaux devoirs des ecclesiastiques, avec un recueil de mandemens sur differens sujets</t>
+  </si>
+  <si>
+    <t>Massillon</t>
   </si>
   <si>
     <t>На палітурці 2 екслібриси:
 1. Bibliotheque du Prince Lwoff
 2. Библиотека Императорского университета Св. Владимира. Библиотека Ген.-Адъютанта Дмитрия Гавриловича Бибикова, пожертвованная Университету его дочерью, графинею Кассини в 1898 г</t>
+  </si>
+  <si>
+    <t>Практическая геометрия, сочиненная при Сухопутном шляхетном кадетском корпусе, для употребления обучающегося благородного юношества, находящимся при оном корпусе инженер прапорщиком Степаном Назаровым</t>
+  </si>
+  <si>
+    <t>Назаров С</t>
   </si>
   <si>
     <t>Код - Гр, фсд - задовільний
 КНУ ім. Тараса Шевченка, Наукова б-ка
 ім. М. Максимовича
 Пал. XVIII ст.- картон, шкіра, корінець з тисненн</t>
+  </si>
+  <si>
+    <t>Для добрых</t>
+  </si>
+  <si>
+    <t>Гераков Г. В</t>
   </si>
   <si>
     <t>Автора встановлено за інтернет-пошуком.
@@ -596,20 +423,71 @@
 графинею Кассини в 1898 г</t>
   </si>
   <si>
+    <t>История Российского государства</t>
+  </si>
+  <si>
+    <t>Стриттер И</t>
+  </si>
+  <si>
     <t>Код- Гр, фсд- задовіл.
 КНУ ім. Тараса Шевченка, Наукова б-ка 
 ім. М, Максимовича.
 Пал. ХІХ ст. - картон, шкіра</t>
   </si>
   <si>
+    <t>Sermons de m. Massillon, eveque de Clermont, ci-devant pretre de l'Oratoire, l'un des quarante de l'Academie Francoise</t>
+  </si>
+  <si>
+    <t>Practica criminalis canonica, seu litium controversiarumo in foro passim Ecclesiastico verti solitarum, copiosae &amp; iuridicae decisiones</t>
+  </si>
+  <si>
+    <t>Diaz, Jo. Bernardo</t>
+  </si>
+  <si>
+    <t>Loix du magnetisme</t>
+  </si>
+  <si>
+    <t>Le Monnier, Pierre Charles</t>
+  </si>
+  <si>
+    <t>Michaelis ab Isselt amorfortii sui temporis Historia: in qua res in toto orbe terrarum gestae, tum praecipue motuum Belgicorum sub Philippo II Hispaniarum Rege, &amp;c. concitatorum origo &amp; successus usque ad annum M.D.LXXXVI</t>
+  </si>
+  <si>
+    <t>Isselt M. van</t>
+  </si>
+  <si>
     <t>На зворотньому боці палітурки екслібрис: Ex Libris Mich. Comitis Vandalini  Mniszech
 На тит. арк. власницький напис чорним чорнилом: R.P. Nicolai...[далі нерозбірливо]</t>
   </si>
   <si>
+    <t>Michaelis [ab Isselt] de Bello Coloniensi libri quatuor, hoc est rerum ab electione Gebhardi Truchsesii in archiepiscopum Coloniensem usque ad recuperatam ab Ernesto duce Bavariae, ejus successore, Westphaliam tota dioecesi gestarum ... narratio</t>
+  </si>
+  <si>
     <t>На стор. перед тит. арк. надпис чорним чорнилом латиною з бібіографічними нотатками: Liber... il. Mencken</t>
   </si>
   <si>
+    <t>Историческая библиотека</t>
+  </si>
+  <si>
+    <t>Диодор Силикийский</t>
+  </si>
+  <si>
+    <t>Architecture hydraulique</t>
+  </si>
+  <si>
+    <t>Belidor B.F</t>
+  </si>
+  <si>
     <t>Література российска, великоруска, украінска и галицька [Література російська, великоруська, українська і галицька]</t>
+  </si>
+  <si>
+    <t>Histoire des juifs, ecrite par Flavius Joseph, sous le titre de Antiquitez Judaiques</t>
+  </si>
+  <si>
+    <t>Flavius Josephus</t>
+  </si>
+  <si>
+    <t>Регламент, или Устав духовной коллегии [Духовный регламент]</t>
   </si>
   <si>
     <t>закон, изданный в форме манифеста Петром I, определявший правовое положение Православной Церкви в России (Православной Российской Церкви). 
@@ -619,28 +497,148 @@
 Пал.XVIII ст.- картон, шкіра</t>
   </si>
   <si>
+    <t>Privilegia fratrum eremitarum Sancti Augustini</t>
+  </si>
+  <si>
     <t>Вихідні дані зазначено у колофоні:
 Impressum Pisauri per Hieronymo Soncino
 Anno domini M.D.XV.
 Die XVIII Maii</t>
   </si>
   <si>
+    <t>Переписка М. Драгоманова з Наталією Кобринською (1893-1895)</t>
+  </si>
+  <si>
     <t>Драгоманов М.П., Кобринська Н.І</t>
   </si>
   <si>
+    <t>Fables et contes</t>
+  </si>
+  <si>
     <t>Gellert C.F</t>
   </si>
   <si>
-    <t>RT 7 [Title] + [Year]</t>
-  </si>
-  <si>
-    <t>RT 2 title:[Title]</t>
-  </si>
-  <si>
-    <t>RT 4 "[Title]"</t>
-  </si>
-  <si>
-    <t>RT 16 "[Title]" + author</t>
+    <t>Titlte len</t>
+  </si>
+  <si>
+    <t>Author len</t>
+  </si>
+  <si>
+    <t>Annotation len</t>
+  </si>
+  <si>
+    <t>Language code</t>
+  </si>
+  <si>
+    <t>Bbk</t>
+  </si>
+  <si>
+    <t>Bbk ?</t>
+  </si>
+  <si>
+    <t>More info ?</t>
+  </si>
+  <si>
+    <t>Internal id</t>
+  </si>
+  <si>
+    <t>Yandex Documents Count</t>
+  </si>
+  <si>
+    <t>Yandex Documents Count (Normalized)</t>
+  </si>
+  <si>
+    <t>Т3(4Іта)</t>
+  </si>
+  <si>
+    <t>Т3(4Нім)43-6</t>
+  </si>
+  <si>
+    <t>Х</t>
+  </si>
+  <si>
+    <t>Т3(4Нід)4</t>
+  </si>
+  <si>
+    <t>Т3(4Фра)4+Ш6(4Фра)</t>
+  </si>
+  <si>
+    <t>Э375</t>
+  </si>
+  <si>
+    <t>Ц35(0)32</t>
+  </si>
+  <si>
+    <t>Ш6(4Фра)</t>
+  </si>
+  <si>
+    <t>Ю3(4Фра)5-535.12</t>
+  </si>
+  <si>
+    <t>Gellert C.F.</t>
+  </si>
+  <si>
+    <t>Ш6(4Нім)4-5</t>
+  </si>
+  <si>
+    <t>Э37-200.22+Э37-2</t>
+  </si>
+  <si>
+    <t>Ш6(4Фра)51</t>
+  </si>
+  <si>
+    <t>Т3(4Іта-2Вен)</t>
+  </si>
+  <si>
+    <t>В151</t>
+  </si>
+  <si>
+    <t>Annus V : Historico-naturalis : 1. Emendationes et Additamenta ad I, II, III, IV; 2. Tentamen Mineralogicum 1. De Minera Argenti alba; 3. Tentamen Mineralogicum 2. De Sulhpure; 4. Tentamen Mineralogicum 3. De Pseudogalena, Auripigmento, aliisque; 5. Observationes Zoologicae. - 128 p.</t>
+  </si>
+  <si>
+    <t>Э375-5+Э375-647.315</t>
+  </si>
+  <si>
+    <t>Т3(0)35</t>
+  </si>
+  <si>
+    <t>Ш6(4Фра)4я44</t>
+  </si>
+  <si>
+    <t>Э37</t>
+  </si>
+  <si>
+    <t>Э37-2</t>
+  </si>
+  <si>
+    <t>Ю7+Э375-43</t>
+  </si>
+  <si>
+    <t>В3</t>
+  </si>
+  <si>
+    <t>закон, изданный в форме манифеста Петром I, определявший правовое положение Православной Церкви в России (Православной Российской Церкви). Код - Кир, фсд - задовільний КНУ ім. Тараса Шевченка, Наукова б-ка ім. М. Максимовича Пал.XVIII ст.- картон, шкіра</t>
+  </si>
+  <si>
+    <t>Э372.24-346</t>
+  </si>
+  <si>
+    <t>Т3(4Рос)0,01</t>
+  </si>
+  <si>
+    <t>Література российска, великоруска, украінска и галицька</t>
+  </si>
+  <si>
+    <t>Ш5(4Укр)+Ш5(4Рос)</t>
+  </si>
+  <si>
+    <t>Ш5(4Укр)5-31</t>
+  </si>
+  <si>
+    <t>Т3</t>
+  </si>
+  <si>
+    <t>Ю2+Э37</t>
   </si>
 </sst>
 </file>
@@ -650,7 +648,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -695,14 +693,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -739,9 +729,9 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -753,11 +743,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1036,11 +1029,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I55"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1049,54 +1042,48 @@
     <col min="2" max="2" width="5.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.6328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.6328125" customWidth="1"/>
-    <col min="5" max="5" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.54296875" customWidth="1"/>
     <col min="6" max="6" width="6.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7265625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>136</v>
+        <v>10</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="10"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>125</v>
+        <v>12</v>
       </c>
       <c r="B2" s="6">
         <v>1876</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>141</v>
+        <v>14</v>
       </c>
       <c r="E2" s="6">
         <v>14</v>
@@ -1105,27 +1092,22 @@
         <v>1</v>
       </c>
       <c r="G2" s="6">
-        <v>329</v>
-      </c>
-      <c r="H2" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" s="6">
         <v>631957</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c r="B3" s="6">
         <v>1890</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>131</v>
+        <v>16</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>141</v>
+        <v>14</v>
       </c>
       <c r="E3" s="6">
         <v>12</v>
@@ -1134,27 +1116,22 @@
         <v>0</v>
       </c>
       <c r="G3" s="6">
-        <v>679137</v>
-      </c>
-      <c r="H3" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" s="6">
         <v>1248836</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="B4" s="6">
         <v>1700</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>142</v>
+        <v>19</v>
       </c>
       <c r="E4" s="6">
         <v>4</v>
@@ -1163,27 +1140,22 @@
         <v>0</v>
       </c>
       <c r="G4" s="6">
-        <v>604</v>
-      </c>
-      <c r="H4" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" s="6">
         <v>1225395</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="H4" s="9"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="B5" s="6">
         <v>1775</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>141</v>
+        <v>14</v>
       </c>
       <c r="E5" s="6">
         <v>10</v>
@@ -1192,27 +1164,22 @@
         <v>1</v>
       </c>
       <c r="G5" s="6">
-        <v>263</v>
-      </c>
-      <c r="H5" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" s="6">
         <v>766461</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="B6" s="6">
         <v>1760</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>141</v>
+        <v>14</v>
       </c>
       <c r="E6" s="6">
         <v>4</v>
@@ -1221,27 +1188,22 @@
         <v>1</v>
       </c>
       <c r="G6" s="6">
-        <v>551</v>
-      </c>
-      <c r="H6" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" s="6">
         <v>766382</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
-        <v>110</v>
+        <v>24</v>
       </c>
       <c r="B7" s="6">
         <v>1801</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>111</v>
+        <v>25</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>141</v>
+        <v>14</v>
       </c>
       <c r="E7" s="6">
         <v>4</v>
@@ -1250,27 +1212,22 @@
         <v>0</v>
       </c>
       <c r="G7" s="6">
-        <v>749</v>
-      </c>
-      <c r="H7" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" s="6">
         <v>1380550</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="B8" s="6">
         <v>1615</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>141</v>
+        <v>14</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>143</v>
+        <v>27</v>
       </c>
       <c r="E8" s="6">
         <v>4</v>
@@ -1279,27 +1236,22 @@
         <v>0</v>
       </c>
       <c r="G8" s="6">
-        <v>1328</v>
-      </c>
-      <c r="H8" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" s="6">
         <v>1201159</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B9" s="6">
         <v>1659</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>141</v>
+        <v>14</v>
       </c>
       <c r="E9" s="6">
         <v>14</v>
@@ -1308,27 +1260,22 @@
         <v>0</v>
       </c>
       <c r="G9" s="6">
-        <v>33</v>
-      </c>
-      <c r="H9" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" s="6">
         <v>764847</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="B10" s="6">
         <v>1776</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>144</v>
+        <v>32</v>
       </c>
       <c r="E10" s="6">
         <v>4</v>
@@ -1337,27 +1284,22 @@
         <v>0</v>
       </c>
       <c r="G10" s="6">
-        <v>89</v>
-      </c>
-      <c r="H10" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" s="6">
         <v>1418798</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B11" s="6">
         <v>1700</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>141</v>
+        <v>14</v>
       </c>
       <c r="E11" s="6">
         <v>4</v>
@@ -1366,27 +1308,22 @@
         <v>1</v>
       </c>
       <c r="G11" s="6">
-        <v>774</v>
-      </c>
-      <c r="H11" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" s="6">
         <v>766839</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="B12" s="6">
         <v>1775</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>145</v>
+        <v>37</v>
       </c>
       <c r="E12" s="6">
         <v>4</v>
@@ -1395,27 +1332,22 @@
         <v>1</v>
       </c>
       <c r="G12" s="6">
-        <v>1264</v>
-      </c>
-      <c r="H12" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" s="6">
         <v>1180265</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="B13" s="6">
         <v>1801</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>113</v>
+        <v>39</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>141</v>
+        <v>14</v>
       </c>
       <c r="E13" s="6">
         <v>11</v>
@@ -1424,27 +1356,22 @@
         <v>0</v>
       </c>
       <c r="G13" s="6">
-        <v>1722</v>
-      </c>
-      <c r="H13" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" s="6">
         <v>1431942</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="B14" s="6">
         <v>1770</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>141</v>
+        <v>14</v>
       </c>
       <c r="E14" s="6">
         <v>4</v>
@@ -1453,27 +1380,22 @@
         <v>0</v>
       </c>
       <c r="G14" s="6">
-        <v>500</v>
-      </c>
-      <c r="H14" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" s="6">
         <v>1320138</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="H14" s="9"/>
+    </row>
+    <row r="15" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="B15" s="6">
         <v>1775</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>146</v>
+        <v>44</v>
       </c>
       <c r="E15" s="6">
         <v>12</v>
@@ -1482,27 +1404,22 @@
         <v>0</v>
       </c>
       <c r="G15" s="6">
-        <v>21228</v>
-      </c>
-      <c r="H15" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I15" s="6">
         <v>1056085</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="H15" s="9"/>
+    </row>
+    <row r="16" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="B16" s="6">
         <v>1770</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>141</v>
+        <v>14</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>147</v>
+        <v>46</v>
       </c>
       <c r="E16" s="6">
         <v>12</v>
@@ -1511,27 +1428,22 @@
         <v>0</v>
       </c>
       <c r="G16" s="6">
-        <v>85113</v>
-      </c>
-      <c r="H16" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" s="6">
         <v>1056054</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="H16" s="9"/>
+    </row>
+    <row r="17" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="B17" s="6">
         <v>1775</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>148</v>
+        <v>49</v>
       </c>
       <c r="E17" s="6">
         <v>12</v>
@@ -1540,27 +1452,22 @@
         <v>0</v>
       </c>
       <c r="G17" s="6">
-        <v>284</v>
-      </c>
-      <c r="H17" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" s="6">
         <v>1056080</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="H17" s="9"/>
+    </row>
+    <row r="18" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
-        <v>114</v>
+        <v>50</v>
       </c>
       <c r="B18" s="6">
         <v>1801</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>141</v>
+        <v>14</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>149</v>
+        <v>51</v>
       </c>
       <c r="E18" s="6">
         <v>12</v>
@@ -1569,27 +1476,22 @@
         <v>0</v>
       </c>
       <c r="G18" s="6">
-        <v>51601</v>
-      </c>
-      <c r="H18" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" s="6">
         <v>917459</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="H18" s="9"/>
+    </row>
+    <row r="19" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
-        <v>135</v>
+        <v>52</v>
       </c>
       <c r="B19" s="6">
         <v>1917</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>141</v>
+        <v>14</v>
       </c>
       <c r="E19" s="6">
         <v>14</v>
@@ -1598,27 +1500,22 @@
         <v>0</v>
       </c>
       <c r="G19" s="6">
-        <v>658</v>
-      </c>
-      <c r="H19" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I19" s="6">
         <v>1275707</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="B20" s="6">
         <v>1776</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>95</v>
+        <v>54</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="E20" s="6">
         <v>4</v>
@@ -1627,27 +1524,22 @@
         <v>1</v>
       </c>
       <c r="G20" s="6">
-        <v>5450</v>
-      </c>
-      <c r="H20" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" s="6">
         <v>1190709</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="H20" s="9"/>
+    </row>
+    <row r="21" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B21" s="6">
         <v>1750</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>141</v>
+        <v>14</v>
       </c>
       <c r="E21" s="6">
         <v>4</v>
@@ -1656,27 +1548,22 @@
         <v>1</v>
       </c>
       <c r="G21" s="6">
-        <v>14</v>
-      </c>
-      <c r="H21" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I21" s="6">
         <v>1235046</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="H21" s="9"/>
+    </row>
+    <row r="22" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B22" s="6">
         <v>1740</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>151</v>
+        <v>60</v>
       </c>
       <c r="E22" s="6">
         <v>12</v>
@@ -1685,27 +1572,22 @@
         <v>1</v>
       </c>
       <c r="G22" s="6">
-        <v>22952</v>
-      </c>
-      <c r="H22" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" s="6">
         <v>780745</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="H22" s="9"/>
+    </row>
+    <row r="23" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
-        <v>133</v>
+        <v>61</v>
       </c>
       <c r="B23" s="6">
         <v>1906</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>141</v>
+        <v>14</v>
       </c>
       <c r="E23" s="6">
         <v>14</v>
@@ -1714,27 +1596,22 @@
         <v>1</v>
       </c>
       <c r="G23" s="6">
-        <v>265</v>
-      </c>
-      <c r="H23" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" s="6">
         <v>1155910</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="H23" s="9"/>
+    </row>
+    <row r="24" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="B24" s="6">
         <v>1776</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>141</v>
+        <v>14</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>152</v>
+        <v>63</v>
       </c>
       <c r="E24" s="6">
         <v>11</v>
@@ -1743,27 +1620,22 @@
         <v>0</v>
       </c>
       <c r="G24" s="6">
-        <v>173</v>
-      </c>
-      <c r="H24" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24" s="6">
         <v>1256802</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="H24" s="9"/>
+    </row>
+    <row r="25" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="B25" s="6">
         <v>1609</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>153</v>
+        <v>66</v>
       </c>
       <c r="E25" s="6">
         <v>8</v>
@@ -1772,27 +1644,22 @@
         <v>1</v>
       </c>
       <c r="G25" s="6">
-        <v>746</v>
-      </c>
-      <c r="H25" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" s="6">
         <v>1299100</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="H25" s="9"/>
+    </row>
+    <row r="26" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B26" s="6">
         <v>1770</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>154</v>
+        <v>69</v>
       </c>
       <c r="E26" s="6">
         <v>8</v>
@@ -1801,27 +1668,22 @@
         <v>0</v>
       </c>
       <c r="G26" s="6">
-        <v>9</v>
-      </c>
-      <c r="H26" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I26" s="6">
         <v>73117</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="H26" s="9"/>
+    </row>
+    <row r="27" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="6" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="B27" s="6">
         <v>1775</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>155</v>
+        <v>72</v>
       </c>
       <c r="E27" s="6">
         <v>4</v>
@@ -1830,27 +1692,22 @@
         <v>0</v>
       </c>
       <c r="G27" s="6">
-        <v>575</v>
-      </c>
-      <c r="H27" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" s="6">
         <v>1378525</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="H27" s="9"/>
+    </row>
+    <row r="28" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="B28" s="6">
         <v>1605</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>156</v>
+        <v>75</v>
       </c>
       <c r="E28" s="6">
         <v>4</v>
@@ -1859,27 +1716,22 @@
         <v>1</v>
       </c>
       <c r="G28" s="6">
-        <v>924</v>
-      </c>
-      <c r="H28" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I28" s="6">
         <v>766189</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="H28" s="9"/>
+    </row>
+    <row r="29" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B29" s="6">
         <v>1770</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>157</v>
+        <v>78</v>
       </c>
       <c r="E29" s="6">
         <v>4</v>
@@ -1888,27 +1740,22 @@
         <v>1</v>
       </c>
       <c r="G29" s="6">
-        <v>132</v>
-      </c>
-      <c r="H29" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" s="6">
         <v>1229432</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="H29" s="9"/>
+    </row>
+    <row r="30" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="6" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="B30" s="6">
         <v>1607</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>141</v>
+        <v>14</v>
       </c>
       <c r="E30" s="6">
         <v>4</v>
@@ -1917,27 +1764,22 @@
         <v>0</v>
       </c>
       <c r="G30" s="6">
-        <v>1750</v>
-      </c>
-      <c r="H30" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" s="6">
         <v>766165</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="H30" s="9"/>
+    </row>
+    <row r="31" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
-        <v>127</v>
+        <v>81</v>
       </c>
       <c r="B31" s="6">
         <v>1876</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>128</v>
+        <v>82</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>141</v>
+        <v>14</v>
       </c>
       <c r="E31" s="6">
         <v>12</v>
@@ -1946,27 +1788,22 @@
         <v>1</v>
       </c>
       <c r="G31" s="6">
-        <v>681834</v>
-      </c>
-      <c r="H31" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" s="6">
         <v>917957</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="H31" s="9"/>
+    </row>
+    <row r="32" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="B32" s="6">
         <v>1608</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>158</v>
+        <v>85</v>
       </c>
       <c r="E32" s="6">
         <v>8</v>
@@ -1975,27 +1812,22 @@
         <v>1</v>
       </c>
       <c r="G32" s="6">
-        <v>30625</v>
-      </c>
-      <c r="H32" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" s="6">
         <v>1200517</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="H32" s="9"/>
+    </row>
+    <row r="33" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="B33" s="6">
         <v>1776</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>141</v>
+        <v>14</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>159</v>
+        <v>87</v>
       </c>
       <c r="E33" s="6">
         <v>4</v>
@@ -2004,27 +1836,22 @@
         <v>1</v>
       </c>
       <c r="G33" s="6">
-        <v>42742</v>
-      </c>
-      <c r="H33" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" s="6">
         <v>1186349</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="H33" s="9"/>
+    </row>
+    <row r="34" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="B34" s="6">
         <v>1550</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>160</v>
+        <v>90</v>
       </c>
       <c r="E34" s="6">
         <v>8</v>
@@ -2033,27 +1860,22 @@
         <v>1</v>
       </c>
       <c r="G34" s="6">
-        <v>180</v>
-      </c>
-      <c r="H34" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I34" s="6">
         <v>766026</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="H34" s="9"/>
+    </row>
+    <row r="35" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" s="6" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="B35" s="6">
         <v>1801</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>141</v>
+        <v>14</v>
       </c>
       <c r="E35" s="6">
         <v>12</v>
@@ -2062,27 +1884,22 @@
         <v>1</v>
       </c>
       <c r="G35" s="6">
-        <v>7195</v>
-      </c>
-      <c r="H35" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I35" s="6">
         <v>765223</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="H35" s="9"/>
+    </row>
+    <row r="36" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" s="6" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="B36" s="6">
         <v>1760</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>141</v>
+        <v>14</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>141</v>
+        <v>14</v>
       </c>
       <c r="E36" s="6">
         <v>12</v>
@@ -2091,27 +1908,22 @@
         <v>0</v>
       </c>
       <c r="G36" s="6">
-        <v>87485</v>
-      </c>
-      <c r="H36" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" s="6">
         <v>765131</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="H36" s="9"/>
+    </row>
+    <row r="37" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A37" s="6" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="B37" s="6">
         <v>1750</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>141</v>
+        <v>14</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>161</v>
+        <v>95</v>
       </c>
       <c r="E37" s="6">
         <v>8</v>
@@ -2120,27 +1932,22 @@
         <v>1</v>
       </c>
       <c r="G37" s="6">
-        <v>6266</v>
-      </c>
-      <c r="H37" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I37" s="6">
         <v>1257831</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="H37" s="9"/>
+    </row>
+    <row r="38" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="6" t="s">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="B38" s="6">
         <v>1610</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>162</v>
+        <v>98</v>
       </c>
       <c r="E38" s="6">
         <v>8</v>
@@ -2149,27 +1956,22 @@
         <v>0</v>
       </c>
       <c r="G38" s="6">
-        <v>3</v>
-      </c>
-      <c r="H38" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" s="6">
         <v>1214657</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="H38" s="9"/>
+    </row>
+    <row r="39" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B39" s="6">
         <v>1776</v>
       </c>
       <c r="C39" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D39" s="6" t="s">
         <v>101</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>163</v>
       </c>
       <c r="E39" s="6">
         <v>4</v>
@@ -2178,27 +1980,22 @@
         <v>1</v>
       </c>
       <c r="G39" s="6">
-        <v>879</v>
-      </c>
-      <c r="H39" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" s="6">
         <v>1228307</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="H39" s="9"/>
+    </row>
+    <row r="40" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" s="6" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="B40" s="6">
         <v>1760</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>164</v>
+        <v>104</v>
       </c>
       <c r="E40" s="6">
         <v>12</v>
@@ -2207,27 +2004,22 @@
         <v>1</v>
       </c>
       <c r="G40" s="6">
-        <v>14558</v>
-      </c>
-      <c r="H40" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" s="6">
         <v>939018</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="H40" s="9"/>
+    </row>
+    <row r="41" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A41" s="6" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="B41" s="6">
         <v>1801</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>165</v>
+        <v>107</v>
       </c>
       <c r="E41" s="6">
         <v>12</v>
@@ -2236,27 +2028,22 @@
         <v>0</v>
       </c>
       <c r="G41" s="6">
-        <v>482331</v>
-      </c>
-      <c r="H41" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I41" s="6">
         <v>939023</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="H41" s="9"/>
+    </row>
+    <row r="42" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A42" s="6" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="B42" s="6">
         <v>1801</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>166</v>
+        <v>110</v>
       </c>
       <c r="E42" s="6">
         <v>12</v>
@@ -2265,27 +2052,22 @@
         <v>0</v>
       </c>
       <c r="G42" s="6">
-        <v>2949479</v>
-      </c>
-      <c r="H42" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" s="6">
         <v>1058633</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="H42" s="9"/>
+    </row>
+    <row r="43" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="6" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B43" s="6">
         <v>1776</v>
       </c>
       <c r="C43" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D43" s="6" t="s">
         <v>101</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>163</v>
       </c>
       <c r="E43" s="6">
         <v>4</v>
@@ -2294,27 +2076,22 @@
         <v>1</v>
       </c>
       <c r="G43" s="6">
-        <v>520</v>
-      </c>
-      <c r="H43" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" s="6">
         <v>1187171</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="H43" s="9"/>
+    </row>
+    <row r="44" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" s="6" t="s">
-        <v>21</v>
+        <v>112</v>
       </c>
       <c r="B44" s="6">
         <v>1602</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>22</v>
+        <v>113</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>141</v>
+        <v>14</v>
       </c>
       <c r="E44" s="6">
         <v>8</v>
@@ -2323,27 +2100,22 @@
         <v>1</v>
       </c>
       <c r="G44" s="6">
-        <v>40</v>
-      </c>
-      <c r="H44" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44" s="6">
         <v>765897</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="H44" s="9"/>
+    </row>
+    <row r="45" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45" s="6" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B45" s="6">
         <v>1776</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>144</v>
+        <v>32</v>
       </c>
       <c r="E45" s="6">
         <v>4</v>
@@ -2352,27 +2124,22 @@
         <v>1</v>
       </c>
       <c r="G45" s="6">
-        <v>1</v>
-      </c>
-      <c r="H45" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" s="6">
         <v>765874</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="H45" s="9"/>
+    </row>
+    <row r="46" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A46" s="6" t="s">
-        <v>24</v>
+        <v>116</v>
       </c>
       <c r="B46" s="6">
         <v>1602</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>19</v>
+        <v>117</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>167</v>
+        <v>118</v>
       </c>
       <c r="E46" s="6">
         <v>8</v>
@@ -2381,27 +2148,22 @@
         <v>1</v>
       </c>
       <c r="G46" s="6">
-        <v>493</v>
-      </c>
-      <c r="H46" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I46" s="6">
         <v>1307400</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="H46" s="9"/>
+    </row>
+    <row r="47" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47" s="6" t="s">
-        <v>18</v>
+        <v>119</v>
       </c>
       <c r="B47" s="6">
         <v>1584</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>19</v>
+        <v>117</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>168</v>
+        <v>120</v>
       </c>
       <c r="E47" s="6">
         <v>8</v>
@@ -2410,27 +2172,22 @@
         <v>1</v>
       </c>
       <c r="G47" s="6">
-        <v>706</v>
-      </c>
-      <c r="H47" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I47" s="6">
         <v>765716</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="H47" s="9"/>
+    </row>
+    <row r="48" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48" s="6" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="B48" s="6">
         <v>1775</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>141</v>
+        <v>14</v>
       </c>
       <c r="E48" s="6">
         <v>12</v>
@@ -2439,27 +2196,22 @@
         <v>0</v>
       </c>
       <c r="G48" s="6">
-        <v>427266</v>
-      </c>
-      <c r="H48" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" s="6">
         <v>1380724</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="H48" s="9"/>
+    </row>
+    <row r="49" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A49" s="6" t="s">
-        <v>55</v>
+        <v>123</v>
       </c>
       <c r="B49" s="6">
         <v>1750</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>56</v>
+        <v>124</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>141</v>
+        <v>14</v>
       </c>
       <c r="E49" s="6">
         <v>4</v>
@@ -2468,27 +2220,22 @@
         <v>0</v>
       </c>
       <c r="G49" s="6">
-        <v>452</v>
-      </c>
-      <c r="H49" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I49" s="6">
         <v>1379295</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="H49" s="9"/>
+    </row>
+    <row r="50" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50" s="6" t="s">
-        <v>169</v>
+        <v>125</v>
       </c>
       <c r="B50" s="6">
         <v>1874</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>141</v>
+        <v>14</v>
       </c>
       <c r="E50" s="6">
         <v>14</v>
@@ -2497,27 +2244,22 @@
         <v>1</v>
       </c>
       <c r="G50" s="6">
-        <v>268</v>
-      </c>
-      <c r="H50" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" s="6">
         <v>1295945</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="H50" s="9"/>
+    </row>
+    <row r="51" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A51" s="6" t="s">
-        <v>47</v>
+        <v>126</v>
       </c>
       <c r="B51" s="6">
         <v>1700</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>48</v>
+        <v>127</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>141</v>
+        <v>14</v>
       </c>
       <c r="E51" s="6">
         <v>4</v>
@@ -2526,27 +2268,22 @@
         <v>0</v>
       </c>
       <c r="G51" s="6">
-        <v>120</v>
-      </c>
-      <c r="H51" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" s="6">
         <v>1379419</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="H51" s="9"/>
+    </row>
+    <row r="52" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A52" s="6" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="B52" s="6">
         <v>1776</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>141</v>
+        <v>14</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>170</v>
+        <v>129</v>
       </c>
       <c r="E52" s="6">
         <v>13</v>
@@ -2555,27 +2292,22 @@
         <v>1</v>
       </c>
       <c r="G52" s="6">
-        <v>592353</v>
-      </c>
-      <c r="H52" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" s="6">
         <v>940039</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="H52" s="9"/>
+    </row>
+    <row r="53" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A53" s="6" t="s">
-        <v>14</v>
+        <v>130</v>
       </c>
       <c r="B53" s="6">
         <v>1515</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>141</v>
+        <v>14</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>171</v>
+        <v>131</v>
       </c>
       <c r="E53" s="6">
         <v>8</v>
@@ -2584,16 +2316,11 @@
         <v>0</v>
       </c>
       <c r="G53" s="6">
-        <v>24</v>
-      </c>
-      <c r="H53" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I53" s="6">
         <v>1321468</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="H53" s="9"/>
+    </row>
+    <row r="54" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A54" s="6" t="s">
         <v>132</v>
       </c>
@@ -2601,10 +2328,10 @@
         <v>1905</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>172</v>
+        <v>133</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>141</v>
+        <v>14</v>
       </c>
       <c r="E54" s="6">
         <v>14</v>
@@ -2613,27 +2340,22 @@
         <v>0</v>
       </c>
       <c r="G54" s="6">
-        <v>77</v>
-      </c>
-      <c r="H54" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I54" s="6">
         <v>1155893</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="H54" s="9"/>
+    </row>
+    <row r="55" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A55" s="6" t="s">
-        <v>52</v>
+        <v>134</v>
       </c>
       <c r="B55" s="6">
         <v>1750</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>173</v>
+        <v>135</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>141</v>
+        <v>14</v>
       </c>
       <c r="E55" s="6">
         <v>4</v>
@@ -2642,14 +2364,9 @@
         <v>1</v>
       </c>
       <c r="G55" s="6">
-        <v>4060</v>
-      </c>
-      <c r="H55" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I55" s="6">
         <v>1180139</v>
       </c>
+      <c r="H55" s="9"/>
     </row>
   </sheetData>
   <sortState ref="A2:H54">
@@ -2662,18 +2379,819 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M22" sqref="J1:M22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="33.81640625" customWidth="1"/>
-    <col min="2" max="2" width="6.36328125" customWidth="1"/>
-    <col min="3" max="4" width="18.6328125" customWidth="1"/>
-    <col min="5" max="5" width="8.26953125" customWidth="1"/>
+    <col min="1" max="1" width="8.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.6328125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="9.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="8.7265625" customWidth="1"/>
+    <col min="10" max="10" width="8.7265625" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="8.7265625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="11">
+        <v>631957</v>
+      </c>
+      <c r="B2" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="11">
+        <v>1248836</v>
+      </c>
+      <c r="B3" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="11">
+        <v>1225395</v>
+      </c>
+      <c r="B4" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="11">
+        <v>766461</v>
+      </c>
+      <c r="B5" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="11">
+        <v>766382</v>
+      </c>
+      <c r="B6" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="11">
+        <v>1380550</v>
+      </c>
+      <c r="B7" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="11">
+        <v>1201159</v>
+      </c>
+      <c r="B8" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="11">
+        <v>764847</v>
+      </c>
+      <c r="B9" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="11">
+        <v>1418798</v>
+      </c>
+      <c r="B10" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="11">
+        <v>766839</v>
+      </c>
+      <c r="B11" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="11">
+        <v>1180265</v>
+      </c>
+      <c r="B12" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="11">
+        <v>1431942</v>
+      </c>
+      <c r="B13" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="11">
+        <v>1320138</v>
+      </c>
+      <c r="B14" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+    </row>
+    <row r="15" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="11">
+        <v>1056085</v>
+      </c>
+      <c r="B15" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+    </row>
+    <row r="16" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="11">
+        <v>1056054</v>
+      </c>
+      <c r="B16" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+    </row>
+    <row r="17" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="11">
+        <v>1056080</v>
+      </c>
+      <c r="B17" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+    </row>
+    <row r="18" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="11">
+        <v>917459</v>
+      </c>
+      <c r="B18" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+    </row>
+    <row r="19" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="11">
+        <v>1275707</v>
+      </c>
+      <c r="B19" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+    </row>
+    <row r="20" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="11">
+        <v>1190709</v>
+      </c>
+      <c r="B20" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+    </row>
+    <row r="21" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="11">
+        <v>1235046</v>
+      </c>
+      <c r="B21" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+    </row>
+    <row r="22" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="11">
+        <v>780745</v>
+      </c>
+      <c r="B22" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+    </row>
+    <row r="23" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="11">
+        <v>1155910</v>
+      </c>
+      <c r="B23" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+    </row>
+    <row r="24" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="11">
+        <v>1256802</v>
+      </c>
+      <c r="B24" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+    </row>
+    <row r="25" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="11">
+        <v>1299100</v>
+      </c>
+      <c r="B25" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+    </row>
+    <row r="26" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="11">
+        <v>73117</v>
+      </c>
+      <c r="B26" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+    </row>
+    <row r="27" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="11">
+        <v>1378525</v>
+      </c>
+      <c r="B27" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+    </row>
+    <row r="28" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="11">
+        <v>766189</v>
+      </c>
+      <c r="B28" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+    </row>
+    <row r="29" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="11">
+        <v>1229432</v>
+      </c>
+      <c r="B29" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+    </row>
+    <row r="30" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="11">
+        <v>766165</v>
+      </c>
+      <c r="B30" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+    </row>
+    <row r="31" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="11">
+        <v>917957</v>
+      </c>
+      <c r="B31" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+    </row>
+    <row r="32" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="11">
+        <v>1200517</v>
+      </c>
+      <c r="B32" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+    </row>
+    <row r="33" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="11">
+        <v>1186349</v>
+      </c>
+      <c r="B33" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+    </row>
+    <row r="34" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="11">
+        <v>766026</v>
+      </c>
+      <c r="B34" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+    </row>
+    <row r="35" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="11">
+        <v>765223</v>
+      </c>
+      <c r="B35" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+    </row>
+    <row r="36" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="11">
+        <v>765131</v>
+      </c>
+      <c r="B36" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+    </row>
+    <row r="37" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A37" s="11">
+        <v>1257831</v>
+      </c>
+      <c r="B37" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+    </row>
+    <row r="38" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="11">
+        <v>1214657</v>
+      </c>
+      <c r="B38" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+    </row>
+    <row r="39" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A39" s="11">
+        <v>1228307</v>
+      </c>
+      <c r="B39" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+    </row>
+    <row r="40" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A40" s="11">
+        <v>939018</v>
+      </c>
+      <c r="B40" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+    </row>
+    <row r="41" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A41" s="11">
+        <v>939023</v>
+      </c>
+      <c r="B41" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+    </row>
+    <row r="42" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A42" s="11">
+        <v>1058633</v>
+      </c>
+      <c r="B42" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+    </row>
+    <row r="43" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A43" s="11">
+        <v>1187171</v>
+      </c>
+      <c r="B43" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+    </row>
+    <row r="44" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A44" s="11">
+        <v>765897</v>
+      </c>
+      <c r="B44" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+    </row>
+    <row r="45" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A45" s="11">
+        <v>765874</v>
+      </c>
+      <c r="B45" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+    </row>
+    <row r="46" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A46" s="11">
+        <v>1307400</v>
+      </c>
+      <c r="B46" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+    </row>
+    <row r="47" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A47" s="11">
+        <v>765716</v>
+      </c>
+      <c r="B47" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+    </row>
+    <row r="48" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A48" s="11">
+        <v>1380724</v>
+      </c>
+      <c r="B48" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+    </row>
+    <row r="49" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A49" s="11">
+        <v>1379295</v>
+      </c>
+      <c r="B49" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+    </row>
+    <row r="50" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A50" s="11">
+        <v>1295945</v>
+      </c>
+      <c r="B50" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+    </row>
+    <row r="51" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A51" s="11">
+        <v>1379419</v>
+      </c>
+      <c r="B51" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+    </row>
+    <row r="52" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A52" s="11">
+        <v>940039</v>
+      </c>
+      <c r="B52" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+    </row>
+    <row r="53" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A53" s="11">
+        <v>1321468</v>
+      </c>
+      <c r="B53" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+    </row>
+    <row r="54" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A54" s="11">
+        <v>1155893</v>
+      </c>
+      <c r="B54" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+    </row>
+    <row r="55" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A55" s="11">
+        <v>1180139</v>
+      </c>
+      <c r="B55" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" location="'TestSet'!G2" display="631957"/>
+    <hyperlink ref="A3" location="'TestSet'!G3" display="1248836"/>
+    <hyperlink ref="A4" location="'TestSet'!G4" display="1225395"/>
+    <hyperlink ref="A5" location="'TestSet'!G5" display="766461"/>
+    <hyperlink ref="A6" location="'TestSet'!G6" display="766382"/>
+    <hyperlink ref="A7" location="'TestSet'!G7" display="1380550"/>
+    <hyperlink ref="A8" location="'TestSet'!G8" display="1201159"/>
+    <hyperlink ref="A9" location="'TestSet'!G9" display="764847"/>
+    <hyperlink ref="A10" location="'TestSet'!G10" display="1418798"/>
+    <hyperlink ref="A11" location="'TestSet'!G11" display="766839"/>
+    <hyperlink ref="A12" location="'TestSet'!G12" display="1180265"/>
+    <hyperlink ref="A13" location="'TestSet'!G13" display="1431942"/>
+    <hyperlink ref="A14" location="'TestSet'!G14" display="1320138"/>
+    <hyperlink ref="A15" location="'TestSet'!G15" display="1056085"/>
+    <hyperlink ref="A16" location="'TestSet'!G16" display="1056054"/>
+    <hyperlink ref="A17" location="'TestSet'!G17" display="1056080"/>
+    <hyperlink ref="A18" location="'TestSet'!G18" display="917459"/>
+    <hyperlink ref="A19" location="'TestSet'!G19" display="1275707"/>
+    <hyperlink ref="A20" location="'TestSet'!G20" display="1190709"/>
+    <hyperlink ref="A21" location="'TestSet'!G21" display="1235046"/>
+    <hyperlink ref="A22" location="'TestSet'!G22" display="780745"/>
+    <hyperlink ref="A23" location="'TestSet'!G23" display="1155910"/>
+    <hyperlink ref="A24" location="'TestSet'!G24" display="1256802"/>
+    <hyperlink ref="A25" location="'TestSet'!G25" display="1299100"/>
+    <hyperlink ref="A26" location="'TestSet'!G26" display="73117"/>
+    <hyperlink ref="A27" location="'TestSet'!G27" display="1378525"/>
+    <hyperlink ref="A28" location="'TestSet'!G28" display="766189"/>
+    <hyperlink ref="A29" location="'TestSet'!G29" display="1229432"/>
+    <hyperlink ref="A30" location="'TestSet'!G30" display="766165"/>
+    <hyperlink ref="A31" location="'TestSet'!G31" display="917957"/>
+    <hyperlink ref="A32" location="'TestSet'!G32" display="1200517"/>
+    <hyperlink ref="A33" location="'TestSet'!G33" display="1186349"/>
+    <hyperlink ref="A34" location="'TestSet'!G34" display="766026"/>
+    <hyperlink ref="A35" location="'TestSet'!G35" display="765223"/>
+    <hyperlink ref="A36" location="'TestSet'!G36" display="765131"/>
+    <hyperlink ref="A37" location="'TestSet'!G37" display="1257831"/>
+    <hyperlink ref="A38" location="'TestSet'!G38" display="1214657"/>
+    <hyperlink ref="A39" location="'TestSet'!G39" display="1228307"/>
+    <hyperlink ref="A40" location="'TestSet'!G40" display="939018"/>
+    <hyperlink ref="A41" location="'TestSet'!G41" display="939023"/>
+    <hyperlink ref="A42" location="'TestSet'!G42" display="1058633"/>
+    <hyperlink ref="A43" location="'TestSet'!G43" display="1187171"/>
+    <hyperlink ref="A44" location="'TestSet'!G44" display="765897"/>
+    <hyperlink ref="A45" location="'TestSet'!G45" display="765874"/>
+    <hyperlink ref="A46" location="'TestSet'!G46" display="1307400"/>
+    <hyperlink ref="A47" location="'TestSet'!G47" display="765716"/>
+    <hyperlink ref="A48" location="'TestSet'!G48" display="1380724"/>
+    <hyperlink ref="A49" location="'TestSet'!G49" display="1379295"/>
+    <hyperlink ref="A50" location="'TestSet'!G50" display="1295945"/>
+    <hyperlink ref="A51" location="'TestSet'!G51" display="1379419"/>
+    <hyperlink ref="A52" location="'TestSet'!G52" display="940039"/>
+    <hyperlink ref="A53" location="'TestSet'!G53" display="1321468"/>
+    <hyperlink ref="A54" location="'TestSet'!G54" display="1155893"/>
+    <hyperlink ref="A55" location="'TestSet'!G55" display="1180139"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A2:A22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.1796875" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="8.453125" customWidth="1"/>
     <col min="8" max="8" width="9.453125" customWidth="1"/>
     <col min="9" max="9" width="8.453125" customWidth="1"/>
@@ -2683,951 +3201,447 @@
     <col min="13" max="13" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F1" t="s">
-        <v>137</v>
-      </c>
-      <c r="G1" t="s">
-        <v>138</v>
-      </c>
-      <c r="H1" t="s">
-        <v>139</v>
-      </c>
-      <c r="I1" t="s">
-        <v>140</v>
-      </c>
-      <c r="J1" t="s">
-        <v>176</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2">
-        <v>1760</v>
-      </c>
-      <c r="C2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E2">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>551</v>
-      </c>
-      <c r="H2" t="b">
-        <v>1</v>
-      </c>
-      <c r="I2">
+    </row>
+    <row r="2" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="11">
         <v>766382</v>
       </c>
-      <c r="J2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K2" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L2" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="M2" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B3">
-        <v>1776</v>
-      </c>
-      <c r="C3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D3" t="s">
-        <v>144</v>
-      </c>
-      <c r="E3">
-        <v>4</v>
-      </c>
-      <c r="F3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>89</v>
-      </c>
-      <c r="H3" t="b">
-        <v>1</v>
-      </c>
-      <c r="I3">
+      <c r="B2" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="11">
         <v>1418798</v>
       </c>
-      <c r="J3" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K3" t="b">
-        <v>1</v>
-      </c>
-      <c r="L3" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="M3" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B4">
-        <v>1770</v>
-      </c>
-      <c r="C4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" t="s">
-        <v>141</v>
-      </c>
-      <c r="E4">
-        <v>4</v>
-      </c>
-      <c r="F4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>500</v>
-      </c>
-      <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4">
+      <c r="B3" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="11">
         <v>1320138</v>
       </c>
-      <c r="J4" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K4" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L4" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="M4" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B5">
-        <v>1775</v>
-      </c>
-      <c r="C5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D5" t="s">
-        <v>146</v>
-      </c>
-      <c r="E5">
-        <v>12</v>
-      </c>
-      <c r="F5" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>21228</v>
-      </c>
-      <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5">
+      <c r="B4" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="11">
         <v>1056085</v>
       </c>
-      <c r="J5" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="K5" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L5" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="M5" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B6">
-        <v>1770</v>
-      </c>
-      <c r="C6" t="s">
-        <v>141</v>
-      </c>
-      <c r="D6" t="s">
-        <v>147</v>
-      </c>
-      <c r="E6">
-        <v>12</v>
-      </c>
-      <c r="F6" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>85113</v>
-      </c>
-      <c r="H6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6">
+      <c r="B5" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="11">
         <v>1056054</v>
       </c>
-      <c r="J6" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="K6" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L6" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="M6" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7">
-        <v>1775</v>
-      </c>
-      <c r="C7" t="s">
-        <v>87</v>
-      </c>
-      <c r="D7" t="s">
-        <v>148</v>
-      </c>
-      <c r="E7">
-        <v>12</v>
-      </c>
-      <c r="F7" t="b">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>284</v>
-      </c>
-      <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7">
+      <c r="B6" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="11">
         <v>1056080</v>
       </c>
-      <c r="J7" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="K7" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L7" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="M7" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B8">
-        <v>1801</v>
-      </c>
-      <c r="C8" t="s">
-        <v>141</v>
-      </c>
-      <c r="D8" t="s">
-        <v>149</v>
-      </c>
-      <c r="E8">
-        <v>12</v>
-      </c>
-      <c r="F8" t="b">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>51601</v>
-      </c>
-      <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8">
+      <c r="B7" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="11">
         <v>917459</v>
       </c>
-      <c r="J8" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K8" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L8" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="M8" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>135</v>
-      </c>
-      <c r="B9">
-        <v>1917</v>
-      </c>
-      <c r="C9" t="s">
-        <v>123</v>
-      </c>
-      <c r="D9" t="s">
-        <v>141</v>
-      </c>
-      <c r="E9">
-        <v>14</v>
-      </c>
-      <c r="F9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>658</v>
-      </c>
-      <c r="H9" t="b">
-        <v>1</v>
-      </c>
-      <c r="I9">
+      <c r="B8" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="11">
         <v>1275707</v>
       </c>
-      <c r="J9" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="K9" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L9" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="M9" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10">
-        <v>1750</v>
-      </c>
-      <c r="C10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" t="s">
-        <v>141</v>
-      </c>
-      <c r="E10">
-        <v>4</v>
-      </c>
-      <c r="F10" t="b">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>14</v>
-      </c>
-      <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10">
+      <c r="B9" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C9" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="11">
         <v>1235046</v>
       </c>
-      <c r="J10" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="K10" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L10" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="M10" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11">
-        <v>1740</v>
-      </c>
-      <c r="C11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" t="s">
-        <v>151</v>
-      </c>
-      <c r="E11">
-        <v>12</v>
-      </c>
-      <c r="F11" t="b">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>22952</v>
-      </c>
-      <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11">
+      <c r="B10" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C10" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="11">
         <v>780745</v>
       </c>
-      <c r="J11" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="K11" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L11" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="M11" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>69</v>
-      </c>
-      <c r="B12">
-        <v>1770</v>
-      </c>
-      <c r="C12" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12" t="s">
-        <v>154</v>
-      </c>
-      <c r="E12">
-        <v>8</v>
-      </c>
-      <c r="F12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>9</v>
-      </c>
-      <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12">
+      <c r="B11" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="11">
         <v>73117</v>
       </c>
-      <c r="J12" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K12" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L12" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="M12" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>88</v>
-      </c>
-      <c r="B13">
-        <v>1775</v>
-      </c>
-      <c r="C13" t="s">
-        <v>89</v>
-      </c>
-      <c r="D13" t="s">
-        <v>155</v>
-      </c>
-      <c r="E13">
-        <v>4</v>
-      </c>
-      <c r="F13" t="b">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>575</v>
-      </c>
-      <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13">
+      <c r="B12" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C12" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="11">
         <v>1378525</v>
       </c>
-      <c r="J13" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="K13" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L13" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="M13" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>75</v>
-      </c>
-      <c r="B14">
-        <v>1770</v>
-      </c>
-      <c r="C14" t="s">
-        <v>76</v>
-      </c>
-      <c r="D14" t="s">
-        <v>157</v>
-      </c>
-      <c r="E14">
-        <v>4</v>
-      </c>
-      <c r="F14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>132</v>
-      </c>
-      <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14">
+      <c r="B13" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C13" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D13" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="11">
         <v>1229432</v>
       </c>
-      <c r="J14" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="K14" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L14" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="M14" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>98</v>
-      </c>
-      <c r="B15">
-        <v>1776</v>
-      </c>
-      <c r="C15" t="s">
-        <v>141</v>
-      </c>
-      <c r="D15" t="s">
-        <v>159</v>
-      </c>
-      <c r="E15">
-        <v>4</v>
-      </c>
-      <c r="F15" t="b">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>42742</v>
-      </c>
-      <c r="H15" t="b">
-        <v>1</v>
-      </c>
-      <c r="I15">
+      <c r="B14" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C14" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D14" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="11">
         <v>1186349</v>
       </c>
-      <c r="J15" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K15" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L15" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="M15" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>115</v>
-      </c>
-      <c r="B16">
-        <v>1801</v>
-      </c>
-      <c r="C16" t="s">
-        <v>116</v>
-      </c>
-      <c r="D16" t="s">
-        <v>141</v>
-      </c>
-      <c r="E16">
-        <v>12</v>
-      </c>
-      <c r="F16" t="b">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>7195</v>
-      </c>
-      <c r="H16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16">
+      <c r="B15" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C15" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D15" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="11">
         <v>765223</v>
       </c>
-      <c r="J16" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="K16" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L16" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="M16" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B17">
-        <v>1760</v>
-      </c>
-      <c r="C17" t="s">
-        <v>141</v>
-      </c>
-      <c r="D17" t="s">
-        <v>141</v>
-      </c>
-      <c r="E17">
-        <v>12</v>
-      </c>
-      <c r="F17" t="b">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>87485</v>
-      </c>
-      <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17">
+      <c r="B16" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C16" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D16" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="11">
         <v>765131</v>
       </c>
-      <c r="J17" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="K17" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L17" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="M17" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>120</v>
-      </c>
-      <c r="B18">
-        <v>1801</v>
-      </c>
-      <c r="C18" t="s">
-        <v>121</v>
-      </c>
-      <c r="D18" t="s">
-        <v>166</v>
-      </c>
-      <c r="E18">
-        <v>12</v>
-      </c>
-      <c r="F18" t="b">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>2949479</v>
-      </c>
-      <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18">
+      <c r="B17" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C17" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D17" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="11">
         <v>1058633</v>
       </c>
-      <c r="J18" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K18" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L18" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="M18" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>103</v>
-      </c>
-      <c r="B19">
-        <v>1776</v>
-      </c>
-      <c r="C19" t="s">
-        <v>101</v>
-      </c>
-      <c r="D19" t="s">
-        <v>163</v>
-      </c>
-      <c r="E19">
-        <v>4</v>
-      </c>
-      <c r="F19" t="b">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>520</v>
-      </c>
-      <c r="H19" t="b">
-        <v>1</v>
-      </c>
-      <c r="I19">
+      <c r="B18" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C18" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D18" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="11">
         <v>1187171</v>
       </c>
-      <c r="J19" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K19" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L19" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="M19" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>90</v>
-      </c>
-      <c r="B20">
-        <v>1775</v>
-      </c>
-      <c r="C20" t="s">
-        <v>91</v>
-      </c>
-      <c r="D20" t="s">
-        <v>141</v>
-      </c>
-      <c r="E20">
-        <v>12</v>
-      </c>
-      <c r="F20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>427266</v>
-      </c>
-      <c r="H20" t="b">
-        <v>1</v>
-      </c>
-      <c r="I20">
+      <c r="B19" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C19" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D19" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E19" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="11">
         <v>1380724</v>
       </c>
-      <c r="J20" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K20" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L20" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="M20" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>55</v>
-      </c>
-      <c r="B21">
-        <v>1750</v>
-      </c>
-      <c r="C21" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" t="s">
-        <v>141</v>
-      </c>
-      <c r="E21">
-        <v>4</v>
-      </c>
-      <c r="F21" t="b">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>452</v>
-      </c>
-      <c r="H21" t="b">
-        <v>1</v>
-      </c>
-      <c r="I21">
+      <c r="B20" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C20" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D20" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="11">
         <v>1379295</v>
       </c>
-      <c r="J21" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K21" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L21" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="M21" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>107</v>
-      </c>
-      <c r="B22">
-        <v>1776</v>
-      </c>
-      <c r="C22" t="s">
-        <v>141</v>
-      </c>
-      <c r="D22" t="s">
-        <v>170</v>
-      </c>
-      <c r="E22">
-        <v>13</v>
-      </c>
-      <c r="F22" t="b">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>592353</v>
-      </c>
-      <c r="H22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22">
+      <c r="B21" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C21" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D21" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="11">
         <v>940039</v>
       </c>
-      <c r="J22" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K22" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L22" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="M22" s="4" t="b">
+      <c r="B22" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C22" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D22" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" s="6" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" location="'TestSet'!G6" display="766382"/>
+    <hyperlink ref="A3" location="'TestSet'!G10" display="1418798"/>
+    <hyperlink ref="A4" location="'TestSet'!G14" display="1320138"/>
+    <hyperlink ref="A5" location="'TestSet'!G15" display="1056085"/>
+    <hyperlink ref="A6" location="'TestSet'!G16" display="1056054"/>
+    <hyperlink ref="A7" location="'TestSet'!G17" display="1056080"/>
+    <hyperlink ref="A8" location="'TestSet'!G18" display="917459"/>
+    <hyperlink ref="A9" location="'TestSet'!G19" display="1275707"/>
+    <hyperlink ref="A10" location="'TestSet'!G21" display="1235046"/>
+    <hyperlink ref="A11" location="'TestSet'!G22" display="780745"/>
+    <hyperlink ref="A12" location="'TestSet'!G26" display="73117"/>
+    <hyperlink ref="A13" location="'TestSet'!G27" display="1378525"/>
+    <hyperlink ref="A14" location="'TestSet'!G29" display="1229432"/>
+    <hyperlink ref="A15" location="'TestSet'!G33" display="1186349"/>
+    <hyperlink ref="A16" location="'TestSet'!G35" display="765223"/>
+    <hyperlink ref="A17" location="'TestSet'!G36" display="765131"/>
+    <hyperlink ref="A18" location="'TestSet'!G42" display="1058633"/>
+    <hyperlink ref="A19" location="'TestSet'!G43" display="1187171"/>
+    <hyperlink ref="A20" location="'TestSet'!G48" display="1380724"/>
+    <hyperlink ref="A21" location="'TestSet'!G49" display="1379295"/>
+    <hyperlink ref="A22" location="'TestSet'!G52" display="940039"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6328125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.1796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="5" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="9">
+    <row r="1" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="5" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="11">
         <v>766382</v>
       </c>
       <c r="B2" s="6" t="b">
@@ -3642,12 +3656,9 @@
       <c r="E2" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="6">
+    </row>
+    <row r="3" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="11">
         <v>1418798</v>
       </c>
       <c r="B3" s="6" t="b">
@@ -3663,8 +3674,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="6">
+    <row r="4" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="11">
         <v>1320138</v>
       </c>
       <c r="B4" s="6" t="b">
@@ -3680,8 +3691,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="6">
+    <row r="5" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="11">
         <v>1056085</v>
       </c>
       <c r="B5" s="6" t="b">
@@ -3697,8 +3708,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="6">
+    <row r="6" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="11">
         <v>1056054</v>
       </c>
       <c r="B6" s="6" t="b">
@@ -3714,8 +3725,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="6">
+    <row r="7" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="11">
         <v>1056080</v>
       </c>
       <c r="B7" s="6" t="b">
@@ -3731,8 +3742,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="6">
+    <row r="8" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="11">
         <v>917459</v>
       </c>
       <c r="B8" s="6" t="b">
@@ -3748,8 +3759,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="6">
+    <row r="9" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="11">
         <v>1275707</v>
       </c>
       <c r="B9" s="6" t="b">
@@ -3765,8 +3776,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="6">
+    <row r="10" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="11">
         <v>1235046</v>
       </c>
       <c r="B10" s="6" t="b">
@@ -3782,8 +3793,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="6">
+    <row r="11" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="11">
         <v>780745</v>
       </c>
       <c r="B11" s="6" t="b">
@@ -3799,8 +3810,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="6">
+    <row r="12" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="11">
         <v>73117</v>
       </c>
       <c r="B12" s="6" t="b">
@@ -3816,8 +3827,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="6">
+    <row r="13" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="11">
         <v>1378525</v>
       </c>
       <c r="B13" s="6" t="b">
@@ -3833,8 +3844,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="6">
+    <row r="14" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="11">
         <v>1229432</v>
       </c>
       <c r="B14" s="6" t="b">
@@ -3850,8 +3861,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="6">
+    <row r="15" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="11">
         <v>1186349</v>
       </c>
       <c r="B15" s="6" t="b">
@@ -3867,8 +3878,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="6">
+    <row r="16" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="11">
         <v>765223</v>
       </c>
       <c r="B16" s="6" t="b">
@@ -3885,7 +3896,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="6">
+      <c r="A17" s="11">
         <v>765131</v>
       </c>
       <c r="B17" s="6" t="b">
@@ -3902,7 +3913,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="6">
+      <c r="A18" s="11">
         <v>1058633</v>
       </c>
       <c r="B18" s="6" t="b">
@@ -3919,7 +3930,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="6">
+      <c r="A19" s="11">
         <v>1187171</v>
       </c>
       <c r="B19" s="6" t="b">
@@ -3936,7 +3947,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="6">
+      <c r="A20" s="11">
         <v>1380724</v>
       </c>
       <c r="B20" s="6" t="b">
@@ -3953,7 +3964,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="6">
+      <c r="A21" s="11">
         <v>1379295</v>
       </c>
       <c r="B21" s="6" t="b">
@@ -3970,7 +3981,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="6">
+      <c r="A22" s="11">
         <v>940039</v>
       </c>
       <c r="B22" s="6" t="b">
@@ -3988,13 +3999,34 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" location="TestSetInfo!I6" display="TestSetInfo!I6"/>
+    <hyperlink ref="A2" location="'TestSet'!G6" display="766382"/>
+    <hyperlink ref="A3" location="'TestSet'!G10" display="1418798"/>
+    <hyperlink ref="A4" location="'TestSet'!G14" display="1320138"/>
+    <hyperlink ref="A5" location="'TestSet'!G15" display="1056085"/>
+    <hyperlink ref="A6" location="'TestSet'!G16" display="1056054"/>
+    <hyperlink ref="A7" location="'TestSet'!G17" display="1056080"/>
+    <hyperlink ref="A8" location="'TestSet'!G18" display="917459"/>
+    <hyperlink ref="A9" location="'TestSet'!G19" display="1275707"/>
+    <hyperlink ref="A10" location="'TestSet'!G21" display="1235046"/>
+    <hyperlink ref="A11" location="'TestSet'!G22" display="780745"/>
+    <hyperlink ref="A12" location="'TestSet'!G26" display="73117"/>
+    <hyperlink ref="A13" location="'TestSet'!G27" display="1378525"/>
+    <hyperlink ref="A14" location="'TestSet'!G29" display="1229432"/>
+    <hyperlink ref="A15" location="'TestSet'!G33" display="1186349"/>
+    <hyperlink ref="A16" location="'TestSet'!G35" display="765223"/>
+    <hyperlink ref="A17" location="'TestSet'!G36" display="765131"/>
+    <hyperlink ref="A18" location="'TestSet'!G42" display="1058633"/>
+    <hyperlink ref="A19" location="'TestSet'!G43" display="1187171"/>
+    <hyperlink ref="A20" location="'TestSet'!G48" display="1380724"/>
+    <hyperlink ref="A21" location="'TestSet'!G49" display="1379295"/>
+    <hyperlink ref="A22" location="'TestSet'!G52" display="940039"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N55"/>
   <sheetViews>
@@ -4018,57 +4050,57 @@
     <col min="12" max="12" width="12.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="28.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="42.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="21" width="8.7265625" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="8.7265625" style="1"/>
+    <col min="15" max="22" width="8.7265625" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>136</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>4</v>
+        <v>137</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>6</v>
+        <v>138</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>7</v>
+        <v>139</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>8</v>
+        <v>140</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>9</v>
+        <v>141</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>10</v>
+        <v>142</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>11</v>
+        <v>143</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>12</v>
+        <v>144</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>13</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
-        <v>14</v>
+        <v>130</v>
       </c>
       <c r="B2" s="2">
         <f t="shared" ref="B2:B33" si="0">LEN(A2)</f>
@@ -4111,7 +4143,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="B3" s="2">
         <f t="shared" si="0"/>
@@ -4121,7 +4153,7 @@
         <v>1550</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="E3" s="2">
         <f t="shared" si="1"/>
@@ -4136,7 +4168,7 @@
         <v>8</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>17</v>
+        <v>146</v>
       </c>
       <c r="J3" s="2" t="b">
         <f t="shared" si="3"/>
@@ -4158,7 +4190,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>119</v>
       </c>
       <c r="B4" s="2">
         <f t="shared" si="0"/>
@@ -4168,7 +4200,7 @@
         <v>1584</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>117</v>
       </c>
       <c r="E4" s="2">
         <f t="shared" si="1"/>
@@ -4183,7 +4215,7 @@
         <v>8</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>20</v>
+        <v>147</v>
       </c>
       <c r="J4" s="2" t="b">
         <f t="shared" si="3"/>
@@ -4205,7 +4237,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
-        <v>21</v>
+        <v>112</v>
       </c>
       <c r="B5" s="2">
         <f t="shared" si="0"/>
@@ -4215,7 +4247,7 @@
         <v>1602</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>22</v>
+        <v>113</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" si="1"/>
@@ -4230,7 +4262,7 @@
         <v>8</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>23</v>
+        <v>148</v>
       </c>
       <c r="J5" s="2" t="b">
         <f t="shared" si="3"/>
@@ -4252,7 +4284,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
-        <v>24</v>
+        <v>116</v>
       </c>
       <c r="B6" s="2">
         <f t="shared" si="0"/>
@@ -4262,7 +4294,7 @@
         <v>1602</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>19</v>
+        <v>117</v>
       </c>
       <c r="E6" s="2">
         <f t="shared" si="1"/>
@@ -4277,7 +4309,7 @@
         <v>8</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>25</v>
+        <v>149</v>
       </c>
       <c r="J6" s="2" t="b">
         <f t="shared" si="3"/>
@@ -4299,7 +4331,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="B7" s="2">
         <f t="shared" si="0"/>
@@ -4309,7 +4341,7 @@
         <v>1605</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" si="1"/>
@@ -4324,7 +4356,7 @@
         <v>4</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>28</v>
+        <v>150</v>
       </c>
       <c r="J7" s="2" t="b">
         <f t="shared" si="3"/>
@@ -4346,7 +4378,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="B8" s="2">
         <f t="shared" si="0"/>
@@ -4356,7 +4388,7 @@
         <v>1607</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" si="1"/>
@@ -4391,7 +4423,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="B9" s="2">
         <f t="shared" si="0"/>
@@ -4401,7 +4433,7 @@
         <v>1608</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" si="1"/>
@@ -4416,7 +4448,7 @@
         <v>8</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>33</v>
+        <v>151</v>
       </c>
       <c r="J9" s="2" t="b">
         <f t="shared" si="3"/>
@@ -4438,7 +4470,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="B10" s="2">
         <f t="shared" si="0"/>
@@ -4448,7 +4480,7 @@
         <v>1609</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="1"/>
@@ -4463,7 +4495,7 @@
         <v>8</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>36</v>
+        <v>152</v>
       </c>
       <c r="J10" s="2" t="b">
         <f t="shared" si="3"/>
@@ -4485,7 +4517,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="B11" s="2">
         <f t="shared" si="0"/>
@@ -4495,7 +4527,7 @@
         <v>1610</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="1"/>
@@ -4530,7 +4562,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="B12" s="2">
         <f t="shared" si="0"/>
@@ -4573,7 +4605,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B13" s="2">
         <f t="shared" si="0"/>
@@ -4583,7 +4615,7 @@
         <v>1659</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="1"/>
@@ -4618,7 +4650,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="B14" s="2">
         <f t="shared" si="0"/>
@@ -4628,7 +4660,7 @@
         <v>1700</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" si="1"/>
@@ -4663,7 +4695,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B15" s="2">
         <f t="shared" si="0"/>
@@ -4673,7 +4705,7 @@
         <v>1700</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" si="1"/>
@@ -4688,7 +4720,7 @@
         <v>4</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>46</v>
+        <v>153</v>
       </c>
       <c r="J15" s="2" t="b">
         <f t="shared" si="3"/>
@@ -4710,7 +4742,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
-        <v>47</v>
+        <v>126</v>
       </c>
       <c r="B16" s="2">
         <f t="shared" si="0"/>
@@ -4720,7 +4752,7 @@
         <v>1700</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>48</v>
+        <v>127</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" si="1"/>
@@ -4755,7 +4787,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B17" s="2">
         <f t="shared" si="0"/>
@@ -4765,7 +4797,7 @@
         <v>1740</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" si="1"/>
@@ -4780,7 +4812,7 @@
         <v>12</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>51</v>
+        <v>154</v>
       </c>
       <c r="J17" s="2" t="b">
         <f t="shared" si="3"/>
@@ -4803,7 +4835,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
-        <v>52</v>
+        <v>134</v>
       </c>
       <c r="B18" s="2">
         <f t="shared" si="0"/>
@@ -4813,7 +4845,7 @@
         <v>1750</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>53</v>
+        <v>155</v>
       </c>
       <c r="E18" s="2">
         <f t="shared" si="1"/>
@@ -4828,7 +4860,7 @@
         <v>4</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>54</v>
+        <v>156</v>
       </c>
       <c r="J18" s="2" t="b">
         <f t="shared" si="3"/>
@@ -4851,7 +4883,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
-        <v>55</v>
+        <v>123</v>
       </c>
       <c r="B19" s="2">
         <f t="shared" si="0"/>
@@ -4861,7 +4893,7 @@
         <v>1750</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>56</v>
+        <v>124</v>
       </c>
       <c r="E19" s="2">
         <f t="shared" si="1"/>
@@ -4897,7 +4929,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="B20" s="2">
         <f t="shared" si="0"/>
@@ -4920,7 +4952,7 @@
         <v>8</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>58</v>
+        <v>157</v>
       </c>
       <c r="J20" s="2" t="b">
         <f t="shared" si="3"/>
@@ -4942,7 +4974,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B21" s="2">
         <f t="shared" si="0"/>
@@ -4952,7 +4984,7 @@
         <v>1750</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" si="1"/>
@@ -4967,7 +4999,7 @@
         <v>4</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>61</v>
+        <v>158</v>
       </c>
       <c r="J21" s="2" t="b">
         <f t="shared" si="3"/>
@@ -4989,7 +5021,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="B22" s="2">
         <f t="shared" si="0"/>
@@ -4999,7 +5031,7 @@
         <v>1760</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="E22" s="2">
         <f t="shared" si="1"/>
@@ -5014,7 +5046,7 @@
         <v>4</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>64</v>
+        <v>159</v>
       </c>
       <c r="J22" s="2" t="b">
         <f t="shared" si="3"/>
@@ -5036,7 +5068,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="B23" s="2">
         <f t="shared" si="0"/>
@@ -5046,7 +5078,7 @@
         <v>1760</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="E23" s="2">
         <f t="shared" si="1"/>
@@ -5061,7 +5093,7 @@
         <v>12</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>67</v>
+        <v>160</v>
       </c>
       <c r="J23" s="2" t="b">
         <f t="shared" si="3"/>
@@ -5083,7 +5115,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="B24" s="2">
         <f t="shared" si="0"/>
@@ -5127,7 +5159,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B25" s="2">
         <f t="shared" si="0"/>
@@ -5137,14 +5169,14 @@
         <v>1770</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E25" s="2">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>71</v>
+        <v>161</v>
       </c>
       <c r="G25" s="2">
         <f t="shared" si="2"/>
@@ -5175,7 +5207,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A26" s="2" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="B26" s="2">
         <f t="shared" si="0"/>
@@ -5185,7 +5217,7 @@
         <v>1770</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="E26" s="2">
         <f t="shared" si="1"/>
@@ -5220,7 +5252,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A27" s="2" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="B27" s="2">
         <f t="shared" si="0"/>
@@ -5264,7 +5296,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A28" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B28" s="2">
         <f t="shared" si="0"/>
@@ -5274,7 +5306,7 @@
         <v>1770</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E28" s="2">
         <f t="shared" si="1"/>
@@ -5289,7 +5321,7 @@
         <v>4</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>77</v>
+        <v>162</v>
       </c>
       <c r="J28" s="2" t="b">
         <f t="shared" si="3"/>
@@ -5312,7 +5344,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A29" s="2" t="s">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="B29" s="2">
         <f t="shared" si="0"/>
@@ -5322,7 +5354,7 @@
         <v>1775</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="E29" s="2">
         <f t="shared" si="1"/>
@@ -5337,7 +5369,7 @@
         <v>10</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>80</v>
+        <v>163</v>
       </c>
       <c r="J29" s="2" t="b">
         <f t="shared" si="3"/>
@@ -5359,7 +5391,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A30" s="2" t="s">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="B30" s="2">
         <f t="shared" si="0"/>
@@ -5369,7 +5401,7 @@
         <v>1775</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="E30" s="2">
         <f t="shared" si="1"/>
@@ -5384,7 +5416,7 @@
         <v>4</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>83</v>
+        <v>164</v>
       </c>
       <c r="J30" s="2" t="b">
         <f t="shared" si="3"/>
@@ -5406,7 +5438,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A31" s="2" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="B31" s="2">
         <f t="shared" si="0"/>
@@ -5416,7 +5448,7 @@
         <v>1775</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="E31" s="2">
         <f t="shared" si="1"/>
@@ -5451,7 +5483,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A32" s="2" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="B32" s="2">
         <f t="shared" si="0"/>
@@ -5461,7 +5493,7 @@
         <v>1775</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="E32" s="2">
         <f t="shared" si="1"/>
@@ -5496,7 +5528,7 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A33" s="2" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="B33" s="2">
         <f t="shared" si="0"/>
@@ -5506,7 +5538,7 @@
         <v>1775</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="E33" s="2">
         <f t="shared" si="1"/>
@@ -5541,7 +5573,7 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A34" s="2" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="B34" s="2">
         <f t="shared" ref="B34:B55" si="4">LEN(A34)</f>
@@ -5551,7 +5583,7 @@
         <v>1775</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
       <c r="E34" s="2">
         <f t="shared" ref="E34:E55" si="5">LEN(D34)</f>
@@ -5586,7 +5618,7 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A35" s="2" t="s">
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="B35" s="2">
         <f t="shared" si="4"/>
@@ -5596,7 +5628,7 @@
         <v>1776</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="E35" s="2">
         <f t="shared" si="5"/>
@@ -5631,7 +5663,7 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A36" s="2" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="B36" s="2">
         <f t="shared" si="4"/>
@@ -5641,7 +5673,7 @@
         <v>1776</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>95</v>
+        <v>54</v>
       </c>
       <c r="E36" s="2">
         <f t="shared" si="5"/>
@@ -5656,7 +5688,7 @@
         <v>4</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>96</v>
+        <v>165</v>
       </c>
       <c r="J36" s="2" t="b">
         <f t="shared" si="7"/>
@@ -5678,7 +5710,7 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A37" s="2" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="B37" s="2">
         <f t="shared" si="4"/>
@@ -5721,7 +5753,7 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A38" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="B38" s="2">
         <f t="shared" si="4"/>
@@ -5744,7 +5776,7 @@
         <v>4</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>99</v>
+        <v>166</v>
       </c>
       <c r="J38" s="2" t="b">
         <f t="shared" si="7"/>
@@ -5766,7 +5798,7 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A39" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B39" s="2">
         <f t="shared" si="4"/>
@@ -5776,7 +5808,7 @@
         <v>1776</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E39" s="2">
         <f t="shared" si="5"/>
@@ -5791,7 +5823,7 @@
         <v>4</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>102</v>
+        <v>167</v>
       </c>
       <c r="J39" s="2" t="b">
         <f t="shared" si="7"/>
@@ -5813,7 +5845,7 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A40" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B40" s="2">
         <f t="shared" si="4"/>
@@ -5823,7 +5855,7 @@
         <v>1776</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E40" s="2">
         <f t="shared" si="5"/>
@@ -5838,7 +5870,7 @@
         <v>4</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>102</v>
+        <v>167</v>
       </c>
       <c r="J40" s="2" t="b">
         <f t="shared" si="7"/>
@@ -5860,7 +5892,7 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A41" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B41" s="2">
         <f t="shared" si="4"/>
@@ -5870,7 +5902,7 @@
         <v>1776</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="E41" s="2">
         <f t="shared" si="5"/>
@@ -5885,7 +5917,7 @@
         <v>4</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>106</v>
+        <v>168</v>
       </c>
       <c r="J41" s="2" t="b">
         <f t="shared" si="7"/>
@@ -5907,7 +5939,7 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A42" s="2" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="B42" s="2">
         <f t="shared" si="4"/>
@@ -5922,7 +5954,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>108</v>
+        <v>169</v>
       </c>
       <c r="G42" s="2">
         <f t="shared" si="6"/>
@@ -5932,7 +5964,7 @@
         <v>13</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>109</v>
+        <v>170</v>
       </c>
       <c r="J42" s="2" t="b">
         <f t="shared" si="7"/>
@@ -5955,7 +5987,7 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A43" s="2" t="s">
-        <v>110</v>
+        <v>24</v>
       </c>
       <c r="B43" s="2">
         <f t="shared" si="4"/>
@@ -5965,7 +5997,7 @@
         <v>1801</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>111</v>
+        <v>25</v>
       </c>
       <c r="E43" s="2">
         <f t="shared" si="5"/>
@@ -6000,7 +6032,7 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A44" s="2" t="s">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="B44" s="2">
         <f t="shared" si="4"/>
@@ -6010,7 +6042,7 @@
         <v>1801</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>113</v>
+        <v>39</v>
       </c>
       <c r="E44" s="2">
         <f t="shared" si="5"/>
@@ -6045,7 +6077,7 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A45" s="2" t="s">
-        <v>114</v>
+        <v>50</v>
       </c>
       <c r="B45" s="2">
         <f t="shared" si="4"/>
@@ -6088,7 +6120,7 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A46" s="2" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="B46" s="2">
         <f t="shared" si="4"/>
@@ -6098,7 +6130,7 @@
         <v>1801</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="E46" s="2">
         <f t="shared" si="5"/>
@@ -6113,7 +6145,7 @@
         <v>12</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>117</v>
+        <v>171</v>
       </c>
       <c r="J46" s="2" t="b">
         <f t="shared" si="7"/>
@@ -6136,7 +6168,7 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A47" s="2" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="B47" s="2">
         <f t="shared" si="4"/>
@@ -6146,7 +6178,7 @@
         <v>1801</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="E47" s="2">
         <f t="shared" si="5"/>
@@ -6181,7 +6213,7 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A48" s="2" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="B48" s="2">
         <f t="shared" si="4"/>
@@ -6191,7 +6223,7 @@
         <v>1801</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="E48" s="2">
         <f t="shared" si="5"/>
@@ -6227,7 +6259,7 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A49" s="2" t="s">
-        <v>122</v>
+        <v>172</v>
       </c>
       <c r="B49" s="2">
         <f t="shared" si="4"/>
@@ -6237,7 +6269,7 @@
         <v>1874</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E49" s="2">
         <f t="shared" si="5"/>
@@ -6252,7 +6284,7 @@
         <v>14</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>124</v>
+        <v>173</v>
       </c>
       <c r="J49" s="2" t="b">
         <f t="shared" si="7"/>
@@ -6274,7 +6306,7 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A50" s="2" t="s">
-        <v>125</v>
+        <v>12</v>
       </c>
       <c r="B50" s="2">
         <f t="shared" si="4"/>
@@ -6284,7 +6316,7 @@
         <v>1876</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E50" s="2">
         <f t="shared" si="5"/>
@@ -6299,7 +6331,7 @@
         <v>14</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>126</v>
+        <v>174</v>
       </c>
       <c r="J50" s="2" t="b">
         <f t="shared" si="7"/>
@@ -6322,7 +6354,7 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A51" s="2" t="s">
-        <v>127</v>
+        <v>81</v>
       </c>
       <c r="B51" s="2">
         <f t="shared" si="4"/>
@@ -6332,7 +6364,7 @@
         <v>1876</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>128</v>
+        <v>82</v>
       </c>
       <c r="E51" s="2">
         <f t="shared" si="5"/>
@@ -6347,7 +6379,7 @@
         <v>12</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>129</v>
+        <v>175</v>
       </c>
       <c r="J51" s="2" t="b">
         <f t="shared" si="7"/>
@@ -6370,7 +6402,7 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A52" s="2" t="s">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c r="B52" s="2">
         <f t="shared" si="4"/>
@@ -6380,7 +6412,7 @@
         <v>1890</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>131</v>
+        <v>16</v>
       </c>
       <c r="E52" s="2">
         <f t="shared" si="5"/>
@@ -6425,7 +6457,7 @@
         <v>1905</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E53" s="2">
         <f t="shared" si="5"/>
@@ -6460,7 +6492,7 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A54" s="2" t="s">
-        <v>133</v>
+        <v>61</v>
       </c>
       <c r="B54" s="2">
         <f t="shared" si="4"/>
@@ -6470,7 +6502,7 @@
         <v>1906</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E54" s="2">
         <f t="shared" si="5"/>
@@ -6485,7 +6517,7 @@
         <v>14</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>134</v>
+        <v>176</v>
       </c>
       <c r="J54" s="2" t="b">
         <f t="shared" si="7"/>
@@ -6508,7 +6540,7 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A55" s="2" t="s">
-        <v>135</v>
+        <v>52</v>
       </c>
       <c r="B55" s="2">
         <f t="shared" si="4"/>
@@ -6518,7 +6550,7 @@
         <v>1917</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E55" s="2">
         <f t="shared" si="5"/>
